--- a/master_thesis/input/MLB_stats_1993.xlsx
+++ b/master_thesis/input/MLB_stats_1993.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="salary_UST" sheetId="1" r:id="rId1"/>
+    <sheet name="team_standings" sheetId="2" r:id="rId2"/>
+    <sheet name="team_pitching" sheetId="3" r:id="rId3"/>
+    <sheet name="team_batting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1040">
   <si>
     <t>RANK</t>
   </si>
@@ -2403,6 +2406,747 @@
   </si>
   <si>
     <t>Mike Lavalliere</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W-L%</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rdiff</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>pythWL</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>ExInn</t>
+  </si>
+  <si>
+    <t>1Run</t>
+  </si>
+  <si>
+    <t>vRHP</t>
+  </si>
+  <si>
+    <t>vLHP</t>
+  </si>
+  <si>
+    <t>≥.500</t>
+  </si>
+  <si>
+    <t>&lt;.500</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>104-58</t>
+  </si>
+  <si>
+    <t>51-30</t>
+  </si>
+  <si>
+    <t>53-28</t>
+  </si>
+  <si>
+    <t>37-22</t>
+  </si>
+  <si>
+    <t>75-43</t>
+  </si>
+  <si>
+    <t>29-15</t>
+  </si>
+  <si>
+    <t>49-38</t>
+  </si>
+  <si>
+    <t>55-20</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>98-64</t>
+  </si>
+  <si>
+    <t>50-31</t>
+  </si>
+  <si>
+    <t>29-18</t>
+  </si>
+  <si>
+    <t>69-37</t>
+  </si>
+  <si>
+    <t>34-22</t>
+  </si>
+  <si>
+    <t>54-21</t>
+  </si>
+  <si>
+    <t>93-69</t>
+  </si>
+  <si>
+    <t>52-29</t>
+  </si>
+  <si>
+    <t>45-36</t>
+  </si>
+  <si>
+    <t>23-20</t>
+  </si>
+  <si>
+    <t>66-47</t>
+  </si>
+  <si>
+    <t>31-18</t>
+  </si>
+  <si>
+    <t>48-39</t>
+  </si>
+  <si>
+    <t>49-26</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>91-71</t>
+  </si>
+  <si>
+    <t>48-33</t>
+  </si>
+  <si>
+    <t>47-34</t>
+  </si>
+  <si>
+    <t>23-22</t>
+  </si>
+  <si>
+    <t>73-42</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>52-23</t>
+  </si>
+  <si>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>92-70</t>
+  </si>
+  <si>
+    <t>49-32</t>
+  </si>
+  <si>
+    <t>67-46</t>
+  </si>
+  <si>
+    <t>27-22</t>
+  </si>
+  <si>
+    <t>46-29</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>86-76</t>
+  </si>
+  <si>
+    <t>55-26</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>32-24</t>
+  </si>
+  <si>
+    <t>66-45</t>
+  </si>
+  <si>
+    <t>28-23</t>
+  </si>
+  <si>
+    <t>42-45</t>
+  </si>
+  <si>
+    <t>87-75</t>
+  </si>
+  <si>
+    <t>38-43</t>
+  </si>
+  <si>
+    <t>20-20</t>
+  </si>
+  <si>
+    <t>56-48</t>
+  </si>
+  <si>
+    <t>32-26</t>
+  </si>
+  <si>
+    <t>45-42</t>
+  </si>
+  <si>
+    <t>43-32</t>
+  </si>
+  <si>
+    <t>82-80</t>
+  </si>
+  <si>
+    <t>30-25</t>
+  </si>
+  <si>
+    <t>59-58</t>
+  </si>
+  <si>
+    <t>28-17</t>
+  </si>
+  <si>
+    <t>45-30</t>
+  </si>
+  <si>
+    <t>89-73</t>
+  </si>
+  <si>
+    <t>36-45</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>69-56</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>46-41</t>
+  </si>
+  <si>
+    <t>40-35</t>
+  </si>
+  <si>
+    <t>44-37</t>
+  </si>
+  <si>
+    <t>41-40</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>57-55</t>
+  </si>
+  <si>
+    <t>28-22</t>
+  </si>
+  <si>
+    <t>41-46</t>
+  </si>
+  <si>
+    <t>44-31</t>
+  </si>
+  <si>
+    <t>85-77</t>
+  </si>
+  <si>
+    <t>37-44</t>
+  </si>
+  <si>
+    <t>21-21</t>
+  </si>
+  <si>
+    <t>61-54</t>
+  </si>
+  <si>
+    <t>24-23</t>
+  </si>
+  <si>
+    <t>38-49</t>
+  </si>
+  <si>
+    <t>47-28</t>
+  </si>
+  <si>
+    <t>90-72</t>
+  </si>
+  <si>
+    <t>19-25</t>
+  </si>
+  <si>
+    <t>57-51</t>
+  </si>
+  <si>
+    <t>28-26</t>
+  </si>
+  <si>
+    <t>KCR</t>
+  </si>
+  <si>
+    <t>79-83</t>
+  </si>
+  <si>
+    <t>43-38</t>
+  </si>
+  <si>
+    <t>38-32</t>
+  </si>
+  <si>
+    <t>61-57</t>
+  </si>
+  <si>
+    <t>23-21</t>
+  </si>
+  <si>
+    <t>47-40</t>
+  </si>
+  <si>
+    <t>37-38</t>
+  </si>
+  <si>
+    <t>81-81</t>
+  </si>
+  <si>
+    <t>26-25</t>
+  </si>
+  <si>
+    <t>68-51</t>
+  </si>
+  <si>
+    <t>16-27</t>
+  </si>
+  <si>
+    <t>42-33</t>
+  </si>
+  <si>
+    <t>46-35</t>
+  </si>
+  <si>
+    <t>29-27</t>
+  </si>
+  <si>
+    <t>47-62</t>
+  </si>
+  <si>
+    <t>35-18</t>
+  </si>
+  <si>
+    <t>40-47</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>27-27</t>
+  </si>
+  <si>
+    <t>51-57</t>
+  </si>
+  <si>
+    <t>30-24</t>
+  </si>
+  <si>
+    <t>35-52</t>
+  </si>
+  <si>
+    <t>80-82</t>
+  </si>
+  <si>
+    <t>24-26</t>
+  </si>
+  <si>
+    <t>54-62</t>
+  </si>
+  <si>
+    <t>26-20</t>
+  </si>
+  <si>
+    <t>47-53</t>
+  </si>
+  <si>
+    <t>33-29</t>
+  </si>
+  <si>
+    <t>30-51</t>
+  </si>
+  <si>
+    <t>17-26</t>
+  </si>
+  <si>
+    <t>54-57</t>
+  </si>
+  <si>
+    <t>22-29</t>
+  </si>
+  <si>
+    <t>41-59</t>
+  </si>
+  <si>
+    <t>35-27</t>
+  </si>
+  <si>
+    <t>71-91</t>
+  </si>
+  <si>
+    <t>35-46</t>
+  </si>
+  <si>
+    <t>29-19</t>
+  </si>
+  <si>
+    <t>54-56</t>
+  </si>
+  <si>
+    <t>21-31</t>
+  </si>
+  <si>
+    <t>42-58</t>
+  </si>
+  <si>
+    <t>75-87</t>
+  </si>
+  <si>
+    <t>32-49</t>
+  </si>
+  <si>
+    <t>16-25</t>
+  </si>
+  <si>
+    <t>54-61</t>
+  </si>
+  <si>
+    <t>19-28</t>
+  </si>
+  <si>
+    <t>34-66</t>
+  </si>
+  <si>
+    <t>39-23</t>
+  </si>
+  <si>
+    <t>68-94</t>
+  </si>
+  <si>
+    <t>27-19</t>
+  </si>
+  <si>
+    <t>50-68</t>
+  </si>
+  <si>
+    <t>21-23</t>
+  </si>
+  <si>
+    <t>36-64</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>72-90</t>
+  </si>
+  <si>
+    <t>27-54</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>44-56</t>
+  </si>
+  <si>
+    <t>27-35</t>
+  </si>
+  <si>
+    <t>31-50</t>
+  </si>
+  <si>
+    <t>21-26</t>
+  </si>
+  <si>
+    <t>47-57</t>
+  </si>
+  <si>
+    <t>22-36</t>
+  </si>
+  <si>
+    <t>37-63</t>
+  </si>
+  <si>
+    <t>32-30</t>
+  </si>
+  <si>
+    <t>69-93</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>45-63</t>
+  </si>
+  <si>
+    <t>23-31</t>
+  </si>
+  <si>
+    <t>24-38</t>
+  </si>
+  <si>
+    <t>63-99</t>
+  </si>
+  <si>
+    <t>28-53</t>
+  </si>
+  <si>
+    <t>53-68</t>
+  </si>
+  <si>
+    <t>14-27</t>
+  </si>
+  <si>
+    <t>31-31</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>65-97</t>
+  </si>
+  <si>
+    <t>29-52</t>
+  </si>
+  <si>
+    <t>25-37</t>
+  </si>
+  <si>
+    <t>43-71</t>
+  </si>
+  <si>
+    <t>21-27</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>34-47</t>
+  </si>
+  <si>
+    <t>18-34</t>
+  </si>
+  <si>
+    <t>38-69</t>
+  </si>
+  <si>
+    <t>23-32</t>
+  </si>
+  <si>
+    <t>35-65</t>
+  </si>
+  <si>
+    <t>26-36</t>
+  </si>
+  <si>
+    <t>73-89</t>
+  </si>
+  <si>
+    <t>19-35</t>
+  </si>
+  <si>
+    <t>46-66</t>
+  </si>
+  <si>
+    <t>13-37</t>
+  </si>
+  <si>
+    <t>29-71</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>#Bat</t>
+  </si>
+  <si>
+    <t>BatAge</t>
+  </si>
+  <si>
+    <t>R/G</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>RBI</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>OBP</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>OPS+</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>HBP</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>#P</t>
+  </si>
+  <si>
+    <t>PAge</t>
+  </si>
+  <si>
+    <t>RA/G</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>tSho</t>
+  </si>
+  <si>
+    <t>cSho</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>ERA+</t>
+  </si>
+  <si>
+    <t>FIP</t>
+  </si>
+  <si>
+    <t>WHIP</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>HR9</t>
+  </si>
+  <si>
+    <t>BB9</t>
+  </si>
+  <si>
+    <t>SO9</t>
+  </si>
+  <si>
+    <t>SO/W</t>
   </si>
 </sst>
 </file>
@@ -2451,11 +3195,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2740,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H749"/>
     </sheetView>
   </sheetViews>
@@ -22225,4 +22972,7796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1" t="s">
+        <v>801</v>
+      </c>
+      <c r="J1" t="s">
+        <v>802</v>
+      </c>
+      <c r="K1" t="s">
+        <v>803</v>
+      </c>
+      <c r="L1" t="s">
+        <v>804</v>
+      </c>
+      <c r="M1" t="s">
+        <v>805</v>
+      </c>
+      <c r="N1" t="s">
+        <v>806</v>
+      </c>
+      <c r="O1" t="s">
+        <v>807</v>
+      </c>
+      <c r="P1" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>809</v>
+      </c>
+      <c r="R1" t="s">
+        <v>810</v>
+      </c>
+      <c r="S1" t="s">
+        <v>811</v>
+      </c>
+      <c r="T1" t="s">
+        <v>812</v>
+      </c>
+      <c r="U1" t="s">
+        <v>813</v>
+      </c>
+      <c r="V1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D2">
+        <v>162</v>
+      </c>
+      <c r="E2">
+        <v>104</v>
+      </c>
+      <c r="F2">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H2">
+        <v>4.7</v>
+      </c>
+      <c r="I2">
+        <v>3.5</v>
+      </c>
+      <c r="J2">
+        <v>1.3</v>
+      </c>
+      <c r="K2">
+        <v>-0.1</v>
+      </c>
+      <c r="L2">
+        <v>1.2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>816</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>817</v>
+      </c>
+      <c r="P2" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43287</v>
+      </c>
+      <c r="R2" t="s">
+        <v>819</v>
+      </c>
+      <c r="S2" t="s">
+        <v>820</v>
+      </c>
+      <c r="T2" t="s">
+        <v>821</v>
+      </c>
+      <c r="U2" t="s">
+        <v>822</v>
+      </c>
+      <c r="V2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D3">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>103</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3.9</v>
+      </c>
+      <c r="J3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3">
+        <v>-0.1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>825</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>826</v>
+      </c>
+      <c r="P3" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>43317</v>
+      </c>
+      <c r="R3" t="s">
+        <v>827</v>
+      </c>
+      <c r="S3" t="s">
+        <v>828</v>
+      </c>
+      <c r="T3" t="s">
+        <v>829</v>
+      </c>
+      <c r="U3" t="s">
+        <v>822</v>
+      </c>
+      <c r="V3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D4">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>97</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H4">
+        <v>5.4</v>
+      </c>
+      <c r="I4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>-0.1</v>
+      </c>
+      <c r="L4">
+        <v>0.8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>831</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>832</v>
+      </c>
+      <c r="P4" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>43411</v>
+      </c>
+      <c r="R4" t="s">
+        <v>834</v>
+      </c>
+      <c r="S4" t="s">
+        <v>835</v>
+      </c>
+      <c r="T4" t="s">
+        <v>836</v>
+      </c>
+      <c r="U4" t="s">
+        <v>837</v>
+      </c>
+      <c r="V4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H5">
+        <v>5.2</v>
+      </c>
+      <c r="I5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>840</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>841</v>
+      </c>
+      <c r="P5" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>43254</v>
+      </c>
+      <c r="R5" t="s">
+        <v>843</v>
+      </c>
+      <c r="S5" t="s">
+        <v>844</v>
+      </c>
+      <c r="T5" t="s">
+        <v>845</v>
+      </c>
+      <c r="U5" t="s">
+        <v>846</v>
+      </c>
+      <c r="V5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" t="s">
+        <v>839</v>
+      </c>
+      <c r="D6">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>4.8</v>
+      </c>
+      <c r="I6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6">
+        <v>-0.1</v>
+      </c>
+      <c r="L6">
+        <v>0.6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>849</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>833</v>
+      </c>
+      <c r="P6" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>43286</v>
+      </c>
+      <c r="R6" t="s">
+        <v>834</v>
+      </c>
+      <c r="S6" t="s">
+        <v>851</v>
+      </c>
+      <c r="T6" t="s">
+        <v>852</v>
+      </c>
+      <c r="U6" t="s">
+        <v>837</v>
+      </c>
+      <c r="V6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>4.5</v>
+      </c>
+      <c r="I7">
+        <v>4.2</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>855</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>856</v>
+      </c>
+      <c r="P7" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43351</v>
+      </c>
+      <c r="R7" t="s">
+        <v>858</v>
+      </c>
+      <c r="S7" t="s">
+        <v>859</v>
+      </c>
+      <c r="T7" t="s">
+        <v>860</v>
+      </c>
+      <c r="U7" t="s">
+        <v>861</v>
+      </c>
+      <c r="V7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D8">
+        <v>162</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>74</v>
+      </c>
+      <c r="G8">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I8">
+        <v>4.7</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>862</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>826</v>
+      </c>
+      <c r="P8" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>43257</v>
+      </c>
+      <c r="R8" t="s">
+        <v>864</v>
+      </c>
+      <c r="S8" t="s">
+        <v>865</v>
+      </c>
+      <c r="T8" t="s">
+        <v>866</v>
+      </c>
+      <c r="U8" t="s">
+        <v>867</v>
+      </c>
+      <c r="V8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H9">
+        <v>4.7</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>869</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>850</v>
+      </c>
+      <c r="P9" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>43349</v>
+      </c>
+      <c r="R9" t="s">
+        <v>870</v>
+      </c>
+      <c r="S9" t="s">
+        <v>871</v>
+      </c>
+      <c r="T9" t="s">
+        <v>872</v>
+      </c>
+      <c r="U9" t="s">
+        <v>861</v>
+      </c>
+      <c r="V9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>839</v>
+      </c>
+      <c r="D10">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H10">
+        <v>5.2</v>
+      </c>
+      <c r="I10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>874</v>
+      </c>
+      <c r="N10">
+        <v>-3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>826</v>
+      </c>
+      <c r="P10" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>43256</v>
+      </c>
+      <c r="R10" t="s">
+        <v>876</v>
+      </c>
+      <c r="S10" t="s">
+        <v>877</v>
+      </c>
+      <c r="T10" t="s">
+        <v>878</v>
+      </c>
+      <c r="U10" t="s">
+        <v>879</v>
+      </c>
+      <c r="V10" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>839</v>
+      </c>
+      <c r="D11">
+        <v>162</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="I11">
+        <v>5.2</v>
+      </c>
+      <c r="J11">
+        <v>0.4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>855</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>881</v>
+      </c>
+      <c r="P11" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>43197</v>
+      </c>
+      <c r="R11" t="s">
+        <v>883</v>
+      </c>
+      <c r="S11" t="s">
+        <v>884</v>
+      </c>
+      <c r="T11" t="s">
+        <v>885</v>
+      </c>
+      <c r="U11" t="s">
+        <v>886</v>
+      </c>
+      <c r="V11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>839</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>888</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>841</v>
+      </c>
+      <c r="P12" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>43285</v>
+      </c>
+      <c r="R12" t="s">
+        <v>890</v>
+      </c>
+      <c r="S12" t="s">
+        <v>891</v>
+      </c>
+      <c r="T12" t="s">
+        <v>892</v>
+      </c>
+      <c r="U12" t="s">
+        <v>893</v>
+      </c>
+      <c r="V12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>815</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I13">
+        <v>3.9</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>895</v>
+      </c>
+      <c r="N13">
+        <v>-5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>881</v>
+      </c>
+      <c r="P13" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>43198</v>
+      </c>
+      <c r="R13" t="s">
+        <v>896</v>
+      </c>
+      <c r="S13" t="s">
+        <v>897</v>
+      </c>
+      <c r="T13" t="s">
+        <v>898</v>
+      </c>
+      <c r="U13" t="s">
+        <v>886</v>
+      </c>
+      <c r="V13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>839</v>
+      </c>
+      <c r="D14">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H14">
+        <v>4.2</v>
+      </c>
+      <c r="I14">
+        <v>4.3</v>
+      </c>
+      <c r="J14">
+        <v>-0.1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>-0.1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>900</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>901</v>
+      </c>
+      <c r="P14" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43318</v>
+      </c>
+      <c r="R14" t="s">
+        <v>902</v>
+      </c>
+      <c r="S14" t="s">
+        <v>903</v>
+      </c>
+      <c r="T14" t="s">
+        <v>904</v>
+      </c>
+      <c r="U14" t="s">
+        <v>905</v>
+      </c>
+      <c r="V14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D15">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H15">
+        <v>4.5</v>
+      </c>
+      <c r="I15">
+        <v>4.5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>907</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>901</v>
+      </c>
+      <c r="P15" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>43257</v>
+      </c>
+      <c r="R15" t="s">
+        <v>908</v>
+      </c>
+      <c r="S15" t="s">
+        <v>909</v>
+      </c>
+      <c r="T15" t="s">
+        <v>910</v>
+      </c>
+      <c r="U15" t="s">
+        <v>861</v>
+      </c>
+      <c r="V15" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>839</v>
+      </c>
+      <c r="D16">
+        <v>162</v>
+      </c>
+      <c r="E16">
+        <v>82</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H16">
+        <v>4.5</v>
+      </c>
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>907</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>912</v>
+      </c>
+      <c r="P16" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>43321</v>
+      </c>
+      <c r="R16" t="s">
+        <v>913</v>
+      </c>
+      <c r="S16" t="s">
+        <v>914</v>
+      </c>
+      <c r="T16" t="s">
+        <v>915</v>
+      </c>
+      <c r="U16" t="s">
+        <v>916</v>
+      </c>
+      <c r="V16" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>815</v>
+      </c>
+      <c r="D17">
+        <v>162</v>
+      </c>
+      <c r="E17">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>4.2</v>
+      </c>
+      <c r="I17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>869</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>882</v>
+      </c>
+      <c r="P17" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>43385</v>
+      </c>
+      <c r="R17" t="s">
+        <v>918</v>
+      </c>
+      <c r="S17" t="s">
+        <v>919</v>
+      </c>
+      <c r="T17" t="s">
+        <v>920</v>
+      </c>
+      <c r="U17" t="s">
+        <v>921</v>
+      </c>
+      <c r="V17" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>839</v>
+      </c>
+      <c r="D18">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H18">
+        <v>4.2</v>
+      </c>
+      <c r="I18">
+        <v>4.3</v>
+      </c>
+      <c r="J18">
+        <v>-0.1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>-0.1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>922</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>901</v>
+      </c>
+      <c r="P18" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>43319</v>
+      </c>
+      <c r="R18" t="s">
+        <v>923</v>
+      </c>
+      <c r="S18" t="s">
+        <v>924</v>
+      </c>
+      <c r="T18" t="s">
+        <v>925</v>
+      </c>
+      <c r="U18" t="s">
+        <v>926</v>
+      </c>
+      <c r="V18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19">
+        <v>162</v>
+      </c>
+      <c r="E19">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>-0.1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-0.1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>900</v>
+      </c>
+      <c r="N19">
+        <v>-3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>912</v>
+      </c>
+      <c r="P19" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43143</v>
+      </c>
+      <c r="R19" t="s">
+        <v>929</v>
+      </c>
+      <c r="S19" t="s">
+        <v>930</v>
+      </c>
+      <c r="T19" t="s">
+        <v>931</v>
+      </c>
+      <c r="U19" t="s">
+        <v>932</v>
+      </c>
+      <c r="V19" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>815</v>
+      </c>
+      <c r="D20">
+        <v>162</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>87</v>
+      </c>
+      <c r="G20">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>-0.6</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>-0.6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>934</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>917</v>
+      </c>
+      <c r="P20" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>43381</v>
+      </c>
+      <c r="R20" t="s">
+        <v>936</v>
+      </c>
+      <c r="S20" t="s">
+        <v>937</v>
+      </c>
+      <c r="T20" t="s">
+        <v>938</v>
+      </c>
+      <c r="U20" t="s">
+        <v>939</v>
+      </c>
+      <c r="V20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>815</v>
+      </c>
+      <c r="D21">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H21">
+        <v>4.5</v>
+      </c>
+      <c r="I21">
+        <v>4.8</v>
+      </c>
+      <c r="J21">
+        <v>-0.4</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-0.4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>940</v>
+      </c>
+      <c r="N21">
+        <v>-2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>882</v>
+      </c>
+      <c r="P21" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>43259</v>
+      </c>
+      <c r="R21" t="s">
+        <v>942</v>
+      </c>
+      <c r="S21" t="s">
+        <v>943</v>
+      </c>
+      <c r="T21" t="s">
+        <v>944</v>
+      </c>
+      <c r="U21" t="s">
+        <v>945</v>
+      </c>
+      <c r="V21" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>839</v>
+      </c>
+      <c r="D22">
+        <v>162</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>0.438</v>
+      </c>
+      <c r="H22">
+        <v>4.3</v>
+      </c>
+      <c r="I22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J22">
+        <v>-0.8</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+      <c r="L22">
+        <v>-0.8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>947</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>875</v>
+      </c>
+      <c r="P22" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>43375</v>
+      </c>
+      <c r="R22" t="s">
+        <v>948</v>
+      </c>
+      <c r="S22" t="s">
+        <v>949</v>
+      </c>
+      <c r="T22" t="s">
+        <v>950</v>
+      </c>
+      <c r="U22" t="s">
+        <v>951</v>
+      </c>
+      <c r="V22" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>952</v>
+      </c>
+      <c r="C23" t="s">
+        <v>839</v>
+      </c>
+      <c r="D23">
+        <v>162</v>
+      </c>
+      <c r="E23">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>91</v>
+      </c>
+      <c r="G23">
+        <v>0.438</v>
+      </c>
+      <c r="H23">
+        <v>4.2</v>
+      </c>
+      <c r="I23">
+        <v>4.8</v>
+      </c>
+      <c r="J23">
+        <v>-0.5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-0.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>953</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>881</v>
+      </c>
+      <c r="P23" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>43198</v>
+      </c>
+      <c r="R23" t="s">
+        <v>955</v>
+      </c>
+      <c r="S23" t="s">
+        <v>956</v>
+      </c>
+      <c r="T23" t="s">
+        <v>910</v>
+      </c>
+      <c r="U23" t="s">
+        <v>957</v>
+      </c>
+      <c r="V23" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>839</v>
+      </c>
+      <c r="D24">
+        <v>162</v>
+      </c>
+      <c r="E24">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>93</v>
+      </c>
+      <c r="G24">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H24">
+        <v>4.5</v>
+      </c>
+      <c r="I24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J24">
+        <v>-0.4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>-0.3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>940</v>
+      </c>
+      <c r="N24">
+        <v>-6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>863</v>
+      </c>
+      <c r="P24" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>43318</v>
+      </c>
+      <c r="R24" t="s">
+        <v>960</v>
+      </c>
+      <c r="S24" t="s">
+        <v>961</v>
+      </c>
+      <c r="T24" t="s">
+        <v>962</v>
+      </c>
+      <c r="U24" t="s">
+        <v>963</v>
+      </c>
+      <c r="V24" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D25">
+        <v>162</v>
+      </c>
+      <c r="E25">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>94</v>
+      </c>
+      <c r="G25">
+        <v>0.42</v>
+      </c>
+      <c r="H25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I25">
+        <v>5.2</v>
+      </c>
+      <c r="J25">
+        <v>-0.8</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>-0.8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>965</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>863</v>
+      </c>
+      <c r="P25" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>43292</v>
+      </c>
+      <c r="R25" t="s">
+        <v>966</v>
+      </c>
+      <c r="S25" t="s">
+        <v>967</v>
+      </c>
+      <c r="T25" t="s">
+        <v>968</v>
+      </c>
+      <c r="U25" t="s">
+        <v>957</v>
+      </c>
+      <c r="V25" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>815</v>
+      </c>
+      <c r="D26">
+        <v>162</v>
+      </c>
+      <c r="E26">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>95</v>
+      </c>
+      <c r="G26">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H26">
+        <v>4.7</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>-1.3</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>-1.2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>970</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>857</v>
+      </c>
+      <c r="P26" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>43316</v>
+      </c>
+      <c r="R26" t="s">
+        <v>925</v>
+      </c>
+      <c r="S26" t="s">
+        <v>972</v>
+      </c>
+      <c r="T26" t="s">
+        <v>973</v>
+      </c>
+      <c r="U26" t="s">
+        <v>951</v>
+      </c>
+      <c r="V26" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>975</v>
+      </c>
+      <c r="C27" t="s">
+        <v>815</v>
+      </c>
+      <c r="D27">
+        <v>162</v>
+      </c>
+      <c r="E27">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>98</v>
+      </c>
+      <c r="G27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H27">
+        <v>3.6</v>
+      </c>
+      <c r="I27">
+        <v>4.5</v>
+      </c>
+      <c r="J27">
+        <v>-0.9</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <v>-0.8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>976</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>935</v>
+      </c>
+      <c r="P27" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>43197</v>
+      </c>
+      <c r="R27" t="s">
+        <v>978</v>
+      </c>
+      <c r="S27" t="s">
+        <v>979</v>
+      </c>
+      <c r="T27" t="s">
+        <v>980</v>
+      </c>
+      <c r="U27" t="s">
+        <v>963</v>
+      </c>
+      <c r="V27" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>981</v>
+      </c>
+      <c r="C28" t="s">
+        <v>815</v>
+      </c>
+      <c r="D28">
+        <v>162</v>
+      </c>
+      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>101</v>
+      </c>
+      <c r="G28">
+        <v>0.377</v>
+      </c>
+      <c r="H28">
+        <v>4.2</v>
+      </c>
+      <c r="I28">
+        <v>4.8</v>
+      </c>
+      <c r="J28">
+        <v>-0.6</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>-0.5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>953</v>
+      </c>
+      <c r="N28">
+        <v>-11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>982</v>
+      </c>
+      <c r="P28" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>43233</v>
+      </c>
+      <c r="R28" t="s">
+        <v>983</v>
+      </c>
+      <c r="S28" t="s">
+        <v>984</v>
+      </c>
+      <c r="T28" t="s">
+        <v>985</v>
+      </c>
+      <c r="U28" t="s">
+        <v>986</v>
+      </c>
+      <c r="V28" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>815</v>
+      </c>
+      <c r="D29">
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>103</v>
+      </c>
+      <c r="G29">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J29">
+        <v>-0.4</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>-0.4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>988</v>
+      </c>
+      <c r="N29">
+        <v>-14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>971</v>
+      </c>
+      <c r="P29" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>43319</v>
+      </c>
+      <c r="R29" t="s">
+        <v>989</v>
+      </c>
+      <c r="S29" t="s">
+        <v>990</v>
+      </c>
+      <c r="T29" t="s">
+        <v>991</v>
+      </c>
+      <c r="U29" t="s">
+        <v>992</v>
+      </c>
+      <c r="V29" t="s">
+        <v>993</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>999</v>
+      </c>
+      <c r="R1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>26.8</v>
+      </c>
+      <c r="D2">
+        <v>3.45</v>
+      </c>
+      <c r="E2">
+        <v>104</v>
+      </c>
+      <c r="F2">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H2">
+        <v>3.14</v>
+      </c>
+      <c r="I2">
+        <v>162</v>
+      </c>
+      <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
+        <v>144</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2">
+        <v>1455</v>
+      </c>
+      <c r="Q2">
+        <v>1297</v>
+      </c>
+      <c r="R2">
+        <v>559</v>
+      </c>
+      <c r="S2">
+        <v>507</v>
+      </c>
+      <c r="T2">
+        <v>101</v>
+      </c>
+      <c r="U2">
+        <v>480</v>
+      </c>
+      <c r="V2">
+        <v>59</v>
+      </c>
+      <c r="W2">
+        <v>1036</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>46</v>
+      </c>
+      <c r="AA2">
+        <v>6015</v>
+      </c>
+      <c r="AB2">
+        <v>128</v>
+      </c>
+      <c r="AC2">
+        <v>3.5</v>
+      </c>
+      <c r="AD2">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>8</v>
+      </c>
+      <c r="AF2">
+        <v>0.6</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>6.4</v>
+      </c>
+      <c r="AI2">
+        <v>2.16</v>
+      </c>
+      <c r="AJ2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>28.4</v>
+      </c>
+      <c r="D3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I3">
+        <v>162</v>
+      </c>
+      <c r="J3">
+        <v>162</v>
+      </c>
+      <c r="K3">
+        <v>141</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>42</v>
+      </c>
+      <c r="P3">
+        <v>1442.2</v>
+      </c>
+      <c r="Q3">
+        <v>1427</v>
+      </c>
+      <c r="R3">
+        <v>745</v>
+      </c>
+      <c r="S3">
+        <v>691</v>
+      </c>
+      <c r="T3">
+        <v>153</v>
+      </c>
+      <c r="U3">
+        <v>579</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <v>900</v>
+      </c>
+      <c r="X3">
+        <v>38</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>41</v>
+      </c>
+      <c r="AA3">
+        <v>6183</v>
+      </c>
+      <c r="AB3">
+        <v>104</v>
+      </c>
+      <c r="AC3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>1.39</v>
+      </c>
+      <c r="AE3">
+        <v>8.9</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>3.6</v>
+      </c>
+      <c r="AH3">
+        <v>5.6</v>
+      </c>
+      <c r="AI3">
+        <v>1.55</v>
+      </c>
+      <c r="AJ3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>30.6</v>
+      </c>
+      <c r="D4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H4">
+        <v>3.77</v>
+      </c>
+      <c r="I4">
+        <v>162</v>
+      </c>
+      <c r="J4">
+        <v>162</v>
+      </c>
+      <c r="K4">
+        <v>153</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>44</v>
+      </c>
+      <c r="P4">
+        <v>1452.1</v>
+      </c>
+      <c r="Q4">
+        <v>1379</v>
+      </c>
+      <c r="R4">
+        <v>698</v>
+      </c>
+      <c r="S4">
+        <v>609</v>
+      </c>
+      <c r="T4">
+        <v>127</v>
+      </c>
+      <c r="U4">
+        <v>552</v>
+      </c>
+      <c r="V4">
+        <v>87</v>
+      </c>
+      <c r="W4">
+        <v>997</v>
+      </c>
+      <c r="X4">
+        <v>48</v>
+      </c>
+      <c r="Y4">
+        <v>11</v>
+      </c>
+      <c r="Z4">
+        <v>42</v>
+      </c>
+      <c r="AA4">
+        <v>6201</v>
+      </c>
+      <c r="AB4">
+        <v>122</v>
+      </c>
+      <c r="AC4">
+        <v>3.99</v>
+      </c>
+      <c r="AD4">
+        <v>1.33</v>
+      </c>
+      <c r="AE4">
+        <v>8.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.8</v>
+      </c>
+      <c r="AG4">
+        <v>3.4</v>
+      </c>
+      <c r="AH4">
+        <v>6.2</v>
+      </c>
+      <c r="AI4">
+        <v>1.81</v>
+      </c>
+      <c r="AJ4">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>28.8</v>
+      </c>
+      <c r="D5">
+        <v>4.75</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>91</v>
+      </c>
+      <c r="G5">
+        <v>0.438</v>
+      </c>
+      <c r="H5">
+        <v>4.34</v>
+      </c>
+      <c r="I5">
+        <v>162</v>
+      </c>
+      <c r="J5">
+        <v>162</v>
+      </c>
+      <c r="K5">
+        <v>136</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>41</v>
+      </c>
+      <c r="P5">
+        <v>1430.1</v>
+      </c>
+      <c r="Q5">
+        <v>1482</v>
+      </c>
+      <c r="R5">
+        <v>770</v>
+      </c>
+      <c r="S5">
+        <v>690</v>
+      </c>
+      <c r="T5">
+        <v>153</v>
+      </c>
+      <c r="U5">
+        <v>550</v>
+      </c>
+      <c r="V5">
+        <v>35</v>
+      </c>
+      <c r="W5">
+        <v>843</v>
+      </c>
+      <c r="X5">
+        <v>51</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>55</v>
+      </c>
+      <c r="AA5">
+        <v>6203</v>
+      </c>
+      <c r="AB5">
+        <v>103</v>
+      </c>
+      <c r="AC5">
+        <v>4.46</v>
+      </c>
+      <c r="AD5">
+        <v>1.421</v>
+      </c>
+      <c r="AE5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>3.5</v>
+      </c>
+      <c r="AH5">
+        <v>5.3</v>
+      </c>
+      <c r="AI5">
+        <v>1.53</v>
+      </c>
+      <c r="AJ5">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>28.3</v>
+      </c>
+      <c r="D6">
+        <v>4.53</v>
+      </c>
+      <c r="E6">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H6">
+        <v>4.18</v>
+      </c>
+      <c r="I6">
+        <v>163</v>
+      </c>
+      <c r="J6">
+        <v>163</v>
+      </c>
+      <c r="K6">
+        <v>155</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>56</v>
+      </c>
+      <c r="P6">
+        <v>1449.2</v>
+      </c>
+      <c r="Q6">
+        <v>1514</v>
+      </c>
+      <c r="R6">
+        <v>739</v>
+      </c>
+      <c r="S6">
+        <v>673</v>
+      </c>
+      <c r="T6">
+        <v>153</v>
+      </c>
+      <c r="U6">
+        <v>470</v>
+      </c>
+      <c r="V6">
+        <v>61</v>
+      </c>
+      <c r="W6">
+        <v>905</v>
+      </c>
+      <c r="X6">
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <v>21</v>
+      </c>
+      <c r="Z6">
+        <v>43</v>
+      </c>
+      <c r="AA6">
+        <v>6178</v>
+      </c>
+      <c r="AB6">
+        <v>94</v>
+      </c>
+      <c r="AC6">
+        <v>4.17</v>
+      </c>
+      <c r="AD6">
+        <v>1.369</v>
+      </c>
+      <c r="AE6">
+        <v>9.4</v>
+      </c>
+      <c r="AF6">
+        <v>0.9</v>
+      </c>
+      <c r="AG6">
+        <v>2.9</v>
+      </c>
+      <c r="AH6">
+        <v>5.6</v>
+      </c>
+      <c r="AI6">
+        <v>1.93</v>
+      </c>
+      <c r="AJ6">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>26.6</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>3.7</v>
+      </c>
+      <c r="I7">
+        <v>162</v>
+      </c>
+      <c r="J7">
+        <v>162</v>
+      </c>
+      <c r="K7">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>48</v>
+      </c>
+      <c r="P7">
+        <v>1454</v>
+      </c>
+      <c r="Q7">
+        <v>1398</v>
+      </c>
+      <c r="R7">
+        <v>664</v>
+      </c>
+      <c r="S7">
+        <v>598</v>
+      </c>
+      <c r="T7">
+        <v>125</v>
+      </c>
+      <c r="U7">
+        <v>566</v>
+      </c>
+      <c r="V7">
+        <v>36</v>
+      </c>
+      <c r="W7">
+        <v>974</v>
+      </c>
+      <c r="X7">
+        <v>40</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>51</v>
+      </c>
+      <c r="AA7">
+        <v>6173</v>
+      </c>
+      <c r="AB7">
+        <v>114</v>
+      </c>
+      <c r="AC7">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>1.351</v>
+      </c>
+      <c r="AE7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF7">
+        <v>0.8</v>
+      </c>
+      <c r="AG7">
+        <v>3.5</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>1.72</v>
+      </c>
+      <c r="AJ7">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>27.9</v>
+      </c>
+      <c r="D8">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>89</v>
+      </c>
+      <c r="G8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H8">
+        <v>4.51</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
+      </c>
+      <c r="J8">
+        <v>162</v>
+      </c>
+      <c r="K8">
+        <v>151</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <v>1434</v>
+      </c>
+      <c r="Q8">
+        <v>1510</v>
+      </c>
+      <c r="R8">
+        <v>785</v>
+      </c>
+      <c r="S8">
+        <v>718</v>
+      </c>
+      <c r="T8">
+        <v>158</v>
+      </c>
+      <c r="U8">
+        <v>508</v>
+      </c>
+      <c r="V8">
+        <v>36</v>
+      </c>
+      <c r="W8">
+        <v>996</v>
+      </c>
+      <c r="X8">
+        <v>44</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>47</v>
+      </c>
+      <c r="AA8">
+        <v>6218</v>
+      </c>
+      <c r="AB8">
+        <v>89</v>
+      </c>
+      <c r="AC8">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AD8">
+        <v>1.407</v>
+      </c>
+      <c r="AE8">
+        <v>9.5</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>3.2</v>
+      </c>
+      <c r="AH8">
+        <v>6.3</v>
+      </c>
+      <c r="AI8">
+        <v>1.96</v>
+      </c>
+      <c r="AJ8">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>27.3</v>
+      </c>
+      <c r="D9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H9">
+        <v>4.58</v>
+      </c>
+      <c r="I9">
+        <v>162</v>
+      </c>
+      <c r="J9">
+        <v>162</v>
+      </c>
+      <c r="K9">
+        <v>155</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>1445.2</v>
+      </c>
+      <c r="Q9">
+        <v>1591</v>
+      </c>
+      <c r="R9">
+        <v>813</v>
+      </c>
+      <c r="S9">
+        <v>735</v>
+      </c>
+      <c r="T9">
+        <v>182</v>
+      </c>
+      <c r="U9">
+        <v>591</v>
+      </c>
+      <c r="V9">
+        <v>53</v>
+      </c>
+      <c r="W9">
+        <v>888</v>
+      </c>
+      <c r="X9">
+        <v>39</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>41</v>
+      </c>
+      <c r="AA9">
+        <v>6384</v>
+      </c>
+      <c r="AB9">
+        <v>95</v>
+      </c>
+      <c r="AC9">
+        <v>4.7</v>
+      </c>
+      <c r="AD9">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>9.9</v>
+      </c>
+      <c r="AF9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>3.7</v>
+      </c>
+      <c r="AH9">
+        <v>5.5</v>
+      </c>
+      <c r="AI9">
+        <v>1.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>27.1</v>
+      </c>
+      <c r="D10">
+        <v>5.97</v>
+      </c>
+      <c r="E10">
+        <v>67</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H10">
+        <v>5.41</v>
+      </c>
+      <c r="I10">
+        <v>162</v>
+      </c>
+      <c r="J10">
+        <v>162</v>
+      </c>
+      <c r="K10">
+        <v>153</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>1431.1</v>
+      </c>
+      <c r="Q10">
+        <v>1664</v>
+      </c>
+      <c r="R10">
+        <v>967</v>
+      </c>
+      <c r="S10">
+        <v>860</v>
+      </c>
+      <c r="T10">
+        <v>181</v>
+      </c>
+      <c r="U10">
+        <v>609</v>
+      </c>
+      <c r="V10">
+        <v>66</v>
+      </c>
+      <c r="W10">
+        <v>913</v>
+      </c>
+      <c r="X10">
+        <v>41</v>
+      </c>
+      <c r="Y10">
+        <v>22</v>
+      </c>
+      <c r="Z10">
+        <v>82</v>
+      </c>
+      <c r="AA10">
+        <v>6471</v>
+      </c>
+      <c r="AB10">
+        <v>88</v>
+      </c>
+      <c r="AC10">
+        <v>4.72</v>
+      </c>
+      <c r="AD10">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>10.5</v>
+      </c>
+      <c r="AF10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>3.8</v>
+      </c>
+      <c r="AH10">
+        <v>5.7</v>
+      </c>
+      <c r="AI10">
+        <v>1.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>30.1</v>
+      </c>
+      <c r="D11">
+        <v>5.17</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I11">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <v>151</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>1436.2</v>
+      </c>
+      <c r="Q11">
+        <v>1547</v>
+      </c>
+      <c r="R11">
+        <v>837</v>
+      </c>
+      <c r="S11">
+        <v>742</v>
+      </c>
+      <c r="T11">
+        <v>188</v>
+      </c>
+      <c r="U11">
+        <v>542</v>
+      </c>
+      <c r="V11">
+        <v>92</v>
+      </c>
+      <c r="W11">
+        <v>828</v>
+      </c>
+      <c r="X11">
+        <v>48</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>68</v>
+      </c>
+      <c r="AA11">
+        <v>6308</v>
+      </c>
+      <c r="AB11">
+        <v>92</v>
+      </c>
+      <c r="AC11">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>1.454</v>
+      </c>
+      <c r="AE11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AF11">
+        <v>1.2</v>
+      </c>
+      <c r="AG11">
+        <v>3.4</v>
+      </c>
+      <c r="AH11">
+        <v>5.2</v>
+      </c>
+      <c r="AI11">
+        <v>1.53</v>
+      </c>
+      <c r="AJ11">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>29.7</v>
+      </c>
+      <c r="D12">
+        <v>4.47</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H12">
+        <v>4.13</v>
+      </c>
+      <c r="I12">
+        <v>162</v>
+      </c>
+      <c r="J12">
+        <v>162</v>
+      </c>
+      <c r="K12">
+        <v>158</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>48</v>
+      </c>
+      <c r="P12">
+        <v>1440.1</v>
+      </c>
+      <c r="Q12">
+        <v>1437</v>
+      </c>
+      <c r="R12">
+        <v>724</v>
+      </c>
+      <c r="S12">
+        <v>661</v>
+      </c>
+      <c r="T12">
+        <v>135</v>
+      </c>
+      <c r="U12">
+        <v>598</v>
+      </c>
+      <c r="V12">
+        <v>58</v>
+      </c>
+      <c r="W12">
+        <v>945</v>
+      </c>
+      <c r="X12">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>85</v>
+      </c>
+      <c r="AA12">
+        <v>6261</v>
+      </c>
+      <c r="AB12">
+        <v>103</v>
+      </c>
+      <c r="AC12">
+        <v>4.21</v>
+      </c>
+      <c r="AD12">
+        <v>1.413</v>
+      </c>
+      <c r="AE12">
+        <v>9</v>
+      </c>
+      <c r="AF12">
+        <v>0.8</v>
+      </c>
+      <c r="AG12">
+        <v>3.7</v>
+      </c>
+      <c r="AH12">
+        <v>5.9</v>
+      </c>
+      <c r="AI12">
+        <v>1.58</v>
+      </c>
+      <c r="AJ12">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>28.3</v>
+      </c>
+      <c r="D13">
+        <v>3.89</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>3.49</v>
+      </c>
+      <c r="I13">
+        <v>162</v>
+      </c>
+      <c r="J13">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>144</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>42</v>
+      </c>
+      <c r="P13">
+        <v>1441.1</v>
+      </c>
+      <c r="Q13">
+        <v>1363</v>
+      </c>
+      <c r="R13">
+        <v>630</v>
+      </c>
+      <c r="S13">
+        <v>559</v>
+      </c>
+      <c r="T13">
+        <v>117</v>
+      </c>
+      <c r="U13">
+        <v>476</v>
+      </c>
+      <c r="V13">
+        <v>52</v>
+      </c>
+      <c r="W13">
+        <v>1056</v>
+      </c>
+      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>60</v>
+      </c>
+      <c r="AA13">
+        <v>6079</v>
+      </c>
+      <c r="AB13">
+        <v>111</v>
+      </c>
+      <c r="AC13">
+        <v>3.65</v>
+      </c>
+      <c r="AD13">
+        <v>1.276</v>
+      </c>
+      <c r="AE13">
+        <v>8.5</v>
+      </c>
+      <c r="AF13">
+        <v>0.7</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>6.6</v>
+      </c>
+      <c r="AI13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AJ13">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>27.4</v>
+      </c>
+      <c r="D14">
+        <v>4.28</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H14">
+        <v>4.04</v>
+      </c>
+      <c r="I14">
+        <v>162</v>
+      </c>
+      <c r="J14">
+        <v>162</v>
+      </c>
+      <c r="K14">
+        <v>146</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="P14">
+        <v>1445.1</v>
+      </c>
+      <c r="Q14">
+        <v>1379</v>
+      </c>
+      <c r="R14">
+        <v>694</v>
+      </c>
+      <c r="S14">
+        <v>649</v>
+      </c>
+      <c r="T14">
+        <v>105</v>
+      </c>
+      <c r="U14">
+        <v>571</v>
+      </c>
+      <c r="V14">
+        <v>36</v>
+      </c>
+      <c r="W14">
+        <v>985</v>
+      </c>
+      <c r="X14">
+        <v>44</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>76</v>
+      </c>
+      <c r="AA14">
+        <v>6145</v>
+      </c>
+      <c r="AB14">
+        <v>114</v>
+      </c>
+      <c r="AC14">
+        <v>3.85</v>
+      </c>
+      <c r="AD14">
+        <v>1.349</v>
+      </c>
+      <c r="AE14">
+        <v>8.6</v>
+      </c>
+      <c r="AF14">
+        <v>0.7</v>
+      </c>
+      <c r="AG14">
+        <v>3.6</v>
+      </c>
+      <c r="AH14">
+        <v>6.1</v>
+      </c>
+      <c r="AI14">
+        <v>1.73</v>
+      </c>
+      <c r="AJ14">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>29.1</v>
+      </c>
+      <c r="D15">
+        <v>4.09</v>
+      </c>
+      <c r="E15">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
+      <c r="I15">
+        <v>162</v>
+      </c>
+      <c r="J15">
+        <v>162</v>
+      </c>
+      <c r="K15">
+        <v>145</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>1472.2</v>
+      </c>
+      <c r="Q15">
+        <v>1406</v>
+      </c>
+      <c r="R15">
+        <v>662</v>
+      </c>
+      <c r="S15">
+        <v>573</v>
+      </c>
+      <c r="T15">
+        <v>103</v>
+      </c>
+      <c r="U15">
+        <v>567</v>
+      </c>
+      <c r="V15">
+        <v>68</v>
+      </c>
+      <c r="W15">
+        <v>1043</v>
+      </c>
+      <c r="X15">
+        <v>37</v>
+      </c>
+      <c r="Y15">
+        <v>20</v>
+      </c>
+      <c r="Z15">
+        <v>47</v>
+      </c>
+      <c r="AA15">
+        <v>6274</v>
+      </c>
+      <c r="AB15">
+        <v>109</v>
+      </c>
+      <c r="AC15">
+        <v>3.71</v>
+      </c>
+      <c r="AD15">
+        <v>1.34</v>
+      </c>
+      <c r="AE15">
+        <v>8.6</v>
+      </c>
+      <c r="AF15">
+        <v>0.6</v>
+      </c>
+      <c r="AG15">
+        <v>3.5</v>
+      </c>
+      <c r="AH15">
+        <v>6.4</v>
+      </c>
+      <c r="AI15">
+        <v>1.84</v>
+      </c>
+      <c r="AJ15">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+      <c r="D16">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>93</v>
+      </c>
+      <c r="G16">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H16">
+        <v>4.45</v>
+      </c>
+      <c r="I16">
+        <v>162</v>
+      </c>
+      <c r="J16">
+        <v>162</v>
+      </c>
+      <c r="K16">
+        <v>136</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>29</v>
+      </c>
+      <c r="P16">
+        <v>1447</v>
+      </c>
+      <c r="Q16">
+        <v>1511</v>
+      </c>
+      <c r="R16">
+        <v>792</v>
+      </c>
+      <c r="S16">
+        <v>716</v>
+      </c>
+      <c r="T16">
+        <v>153</v>
+      </c>
+      <c r="U16">
+        <v>522</v>
+      </c>
+      <c r="V16">
+        <v>58</v>
+      </c>
+      <c r="W16">
+        <v>810</v>
+      </c>
+      <c r="X16">
+        <v>60</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>45</v>
+      </c>
+      <c r="AA16">
+        <v>6285</v>
+      </c>
+      <c r="AB16">
+        <v>96</v>
+      </c>
+      <c r="AC16">
+        <v>4.45</v>
+      </c>
+      <c r="AD16">
+        <v>1.405</v>
+      </c>
+      <c r="AE16">
+        <v>9.4</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>3.2</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>1.55</v>
+      </c>
+      <c r="AJ16">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>27.5</v>
+      </c>
+      <c r="D17">
+        <v>5.12</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>0.438</v>
+      </c>
+      <c r="H17">
+        <v>4.71</v>
+      </c>
+      <c r="I17">
+        <v>162</v>
+      </c>
+      <c r="J17">
+        <v>162</v>
+      </c>
+      <c r="K17">
+        <v>157</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>44</v>
+      </c>
+      <c r="P17">
+        <v>1444.1</v>
+      </c>
+      <c r="Q17">
+        <v>1591</v>
+      </c>
+      <c r="R17">
+        <v>830</v>
+      </c>
+      <c r="S17">
+        <v>756</v>
+      </c>
+      <c r="T17">
+        <v>148</v>
+      </c>
+      <c r="U17">
+        <v>514</v>
+      </c>
+      <c r="V17">
+        <v>34</v>
+      </c>
+      <c r="W17">
+        <v>901</v>
+      </c>
+      <c r="X17">
+        <v>45</v>
+      </c>
+      <c r="Y17">
+        <v>13</v>
+      </c>
+      <c r="Z17">
+        <v>43</v>
+      </c>
+      <c r="AA17">
+        <v>6286</v>
+      </c>
+      <c r="AB17">
+        <v>92</v>
+      </c>
+      <c r="AC17">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AD17">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>9.9</v>
+      </c>
+      <c r="AF17">
+        <v>0.9</v>
+      </c>
+      <c r="AG17">
+        <v>3.2</v>
+      </c>
+      <c r="AH17">
+        <v>5.6</v>
+      </c>
+      <c r="AI17">
+        <v>1.75</v>
+      </c>
+      <c r="AJ17">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>27.9</v>
+      </c>
+      <c r="D18">
+        <v>4.18</v>
+      </c>
+      <c r="E18">
+        <v>94</v>
+      </c>
+      <c r="F18">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H18">
+        <v>3.55</v>
+      </c>
+      <c r="I18">
+        <v>163</v>
+      </c>
+      <c r="J18">
+        <v>163</v>
+      </c>
+      <c r="K18">
+        <v>155</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>61</v>
+      </c>
+      <c r="P18">
+        <v>1456.2</v>
+      </c>
+      <c r="Q18">
+        <v>1369</v>
+      </c>
+      <c r="R18">
+        <v>682</v>
+      </c>
+      <c r="S18">
+        <v>574</v>
+      </c>
+      <c r="T18">
+        <v>119</v>
+      </c>
+      <c r="U18">
+        <v>521</v>
+      </c>
+      <c r="V18">
+        <v>38</v>
+      </c>
+      <c r="W18">
+        <v>934</v>
+      </c>
+      <c r="X18">
+        <v>47</v>
+      </c>
+      <c r="Y18">
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <v>46</v>
+      </c>
+      <c r="AA18">
+        <v>6191</v>
+      </c>
+      <c r="AB18">
+        <v>118</v>
+      </c>
+      <c r="AC18">
+        <v>3.94</v>
+      </c>
+      <c r="AD18">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>8.5</v>
+      </c>
+      <c r="AF18">
+        <v>0.7</v>
+      </c>
+      <c r="AG18">
+        <v>3.2</v>
+      </c>
+      <c r="AH18">
+        <v>5.8</v>
+      </c>
+      <c r="AI18">
+        <v>1.79</v>
+      </c>
+      <c r="AJ18">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>29.2</v>
+      </c>
+      <c r="D19">
+        <v>4.59</v>
+      </c>
+      <c r="E19">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>103</v>
+      </c>
+      <c r="G19">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H19">
+        <v>4.05</v>
+      </c>
+      <c r="I19">
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <v>162</v>
+      </c>
+      <c r="K19">
+        <v>146</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>22</v>
+      </c>
+      <c r="P19">
+        <v>1438</v>
+      </c>
+      <c r="Q19">
+        <v>1483</v>
+      </c>
+      <c r="R19">
+        <v>744</v>
+      </c>
+      <c r="S19">
+        <v>647</v>
+      </c>
+      <c r="T19">
+        <v>139</v>
+      </c>
+      <c r="U19">
+        <v>434</v>
+      </c>
+      <c r="V19">
+        <v>61</v>
+      </c>
+      <c r="W19">
+        <v>867</v>
+      </c>
+      <c r="X19">
+        <v>50</v>
+      </c>
+      <c r="Y19">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>32</v>
+      </c>
+      <c r="AA19">
+        <v>6151</v>
+      </c>
+      <c r="AB19">
+        <v>99</v>
+      </c>
+      <c r="AC19">
+        <v>4.05</v>
+      </c>
+      <c r="AD19">
+        <v>1.333</v>
+      </c>
+      <c r="AE19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF19">
+        <v>0.9</v>
+      </c>
+      <c r="AG19">
+        <v>2.7</v>
+      </c>
+      <c r="AH19">
+        <v>5.4</v>
+      </c>
+      <c r="AI19">
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>28.9</v>
+      </c>
+      <c r="D20">
+        <v>4.7</v>
+      </c>
+      <c r="E20">
+        <v>88</v>
+      </c>
+      <c r="F20">
+        <v>74</v>
+      </c>
+      <c r="G20">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H20">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I20">
+        <v>162</v>
+      </c>
+      <c r="J20">
+        <v>162</v>
+      </c>
+      <c r="K20">
+        <v>151</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>38</v>
+      </c>
+      <c r="P20">
+        <v>1438.1</v>
+      </c>
+      <c r="Q20">
+        <v>1467</v>
+      </c>
+      <c r="R20">
+        <v>761</v>
+      </c>
+      <c r="S20">
+        <v>695</v>
+      </c>
+      <c r="T20">
+        <v>170</v>
+      </c>
+      <c r="U20">
+        <v>552</v>
+      </c>
+      <c r="V20">
+        <v>58</v>
+      </c>
+      <c r="W20">
+        <v>899</v>
+      </c>
+      <c r="X20">
+        <v>29</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>33</v>
+      </c>
+      <c r="AA20">
+        <v>6200</v>
+      </c>
+      <c r="AB20">
+        <v>96</v>
+      </c>
+      <c r="AC20">
+        <v>4.49</v>
+      </c>
+      <c r="AD20">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>3.5</v>
+      </c>
+      <c r="AH20">
+        <v>5.6</v>
+      </c>
+      <c r="AI20">
+        <v>1.63</v>
+      </c>
+      <c r="AJ20">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>30.9</v>
+      </c>
+      <c r="D21">
+        <v>5.22</v>
+      </c>
+      <c r="E21">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>94</v>
+      </c>
+      <c r="G21">
+        <v>0.42</v>
+      </c>
+      <c r="H21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I21">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>162</v>
+      </c>
+      <c r="K21">
+        <v>154</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>42</v>
+      </c>
+      <c r="P21">
+        <v>1452.1</v>
+      </c>
+      <c r="Q21">
+        <v>1551</v>
+      </c>
+      <c r="R21">
+        <v>846</v>
+      </c>
+      <c r="S21">
+        <v>791</v>
+      </c>
+      <c r="T21">
+        <v>157</v>
+      </c>
+      <c r="U21">
+        <v>680</v>
+      </c>
+      <c r="V21">
+        <v>59</v>
+      </c>
+      <c r="W21">
+        <v>864</v>
+      </c>
+      <c r="X21">
+        <v>49</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>39</v>
+      </c>
+      <c r="AA21">
+        <v>6456</v>
+      </c>
+      <c r="AB21">
+        <v>84</v>
+      </c>
+      <c r="AC21">
+        <v>4.71</v>
+      </c>
+      <c r="AD21">
+        <v>1.536</v>
+      </c>
+      <c r="AE21">
+        <v>9.6</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>4.2</v>
+      </c>
+      <c r="AH21">
+        <v>5.4</v>
+      </c>
+      <c r="AI21">
+        <v>1.27</v>
+      </c>
+      <c r="AJ21">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>28.8</v>
+      </c>
+      <c r="D22">
+        <v>4.57</v>
+      </c>
+      <c r="E22">
+        <v>97</v>
+      </c>
+      <c r="F22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H22">
+        <v>3.95</v>
+      </c>
+      <c r="I22">
+        <v>162</v>
+      </c>
+      <c r="J22">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>138</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>46</v>
+      </c>
+      <c r="P22">
+        <v>1472.2</v>
+      </c>
+      <c r="Q22">
+        <v>1419</v>
+      </c>
+      <c r="R22">
+        <v>740</v>
+      </c>
+      <c r="S22">
+        <v>647</v>
+      </c>
+      <c r="T22">
+        <v>129</v>
+      </c>
+      <c r="U22">
+        <v>573</v>
+      </c>
+      <c r="V22">
+        <v>33</v>
+      </c>
+      <c r="W22">
+        <v>1117</v>
+      </c>
+      <c r="X22">
+        <v>37</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>74</v>
+      </c>
+      <c r="AA22">
+        <v>6360</v>
+      </c>
+      <c r="AB22">
+        <v>101</v>
+      </c>
+      <c r="AC22">
+        <v>3.85</v>
+      </c>
+      <c r="AD22">
+        <v>1.353</v>
+      </c>
+      <c r="AE22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF22">
+        <v>0.8</v>
+      </c>
+      <c r="AG22">
+        <v>3.5</v>
+      </c>
+      <c r="AH22">
+        <v>6.8</v>
+      </c>
+      <c r="AI22">
+        <v>1.95</v>
+      </c>
+      <c r="AJ22">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>27.6</v>
+      </c>
+      <c r="D23">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>87</v>
+      </c>
+      <c r="G23">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H23">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I23">
+        <v>162</v>
+      </c>
+      <c r="J23">
+        <v>162</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>34</v>
+      </c>
+      <c r="P23">
+        <v>1445.2</v>
+      </c>
+      <c r="Q23">
+        <v>1557</v>
+      </c>
+      <c r="R23">
+        <v>806</v>
+      </c>
+      <c r="S23">
+        <v>766</v>
+      </c>
+      <c r="T23">
+        <v>153</v>
+      </c>
+      <c r="U23">
+        <v>485</v>
+      </c>
+      <c r="V23">
+        <v>43</v>
+      </c>
+      <c r="W23">
+        <v>832</v>
+      </c>
+      <c r="X23">
+        <v>46</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+      <c r="Z23">
+        <v>55</v>
+      </c>
+      <c r="AA23">
+        <v>6247</v>
+      </c>
+      <c r="AB23">
+        <v>85</v>
+      </c>
+      <c r="AC23">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AD23">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="AE23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>5.2</v>
+      </c>
+      <c r="AI23">
+        <v>1.72</v>
+      </c>
+      <c r="AJ23">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>981</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>26.7</v>
+      </c>
+      <c r="D24">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E24">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>0.377</v>
+      </c>
+      <c r="H24">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I24">
+        <v>162</v>
+      </c>
+      <c r="J24">
+        <v>162</v>
+      </c>
+      <c r="K24">
+        <v>154</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>32</v>
+      </c>
+      <c r="P24">
+        <v>1437.2</v>
+      </c>
+      <c r="Q24">
+        <v>1470</v>
+      </c>
+      <c r="R24">
+        <v>772</v>
+      </c>
+      <c r="S24">
+        <v>675</v>
+      </c>
+      <c r="T24">
+        <v>148</v>
+      </c>
+      <c r="U24">
+        <v>558</v>
+      </c>
+      <c r="V24">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>957</v>
+      </c>
+      <c r="X24">
+        <v>34</v>
+      </c>
+      <c r="Y24">
+        <v>14</v>
+      </c>
+      <c r="Z24">
+        <v>57</v>
+      </c>
+      <c r="AA24">
+        <v>6267</v>
+      </c>
+      <c r="AB24">
+        <v>98</v>
+      </c>
+      <c r="AC24">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AD24">
+        <v>1.411</v>
+      </c>
+      <c r="AE24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF24">
+        <v>0.9</v>
+      </c>
+      <c r="AG24">
+        <v>3.5</v>
+      </c>
+      <c r="AH24">
+        <v>6</v>
+      </c>
+      <c r="AI24">
+        <v>1.72</v>
+      </c>
+      <c r="AJ24">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>28.3</v>
+      </c>
+      <c r="D25">
+        <v>4.51</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H25">
+        <v>4.2</v>
+      </c>
+      <c r="I25">
+        <v>162</v>
+      </c>
+      <c r="J25">
+        <v>162</v>
+      </c>
+      <c r="K25">
+        <v>140</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>1453.2</v>
+      </c>
+      <c r="Q25">
+        <v>1421</v>
+      </c>
+      <c r="R25">
+        <v>731</v>
+      </c>
+      <c r="S25">
+        <v>678</v>
+      </c>
+      <c r="T25">
+        <v>135</v>
+      </c>
+      <c r="U25">
+        <v>605</v>
+      </c>
+      <c r="V25">
+        <v>56</v>
+      </c>
+      <c r="W25">
+        <v>1083</v>
+      </c>
+      <c r="X25">
+        <v>66</v>
+      </c>
+      <c r="Y25">
+        <v>6</v>
+      </c>
+      <c r="Z25">
+        <v>57</v>
+      </c>
+      <c r="AA25">
+        <v>6254</v>
+      </c>
+      <c r="AB25">
+        <v>105</v>
+      </c>
+      <c r="AC25">
+        <v>4.09</v>
+      </c>
+      <c r="AD25">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF25">
+        <v>0.8</v>
+      </c>
+      <c r="AG25">
+        <v>3.7</v>
+      </c>
+      <c r="AH25">
+        <v>6.7</v>
+      </c>
+      <c r="AI25">
+        <v>1.79</v>
+      </c>
+      <c r="AJ25">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>824</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>28.5</v>
+      </c>
+      <c r="D26">
+        <v>3.93</v>
+      </c>
+      <c r="E26">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H26">
+        <v>3.61</v>
+      </c>
+      <c r="I26">
+        <v>162</v>
+      </c>
+      <c r="J26">
+        <v>162</v>
+      </c>
+      <c r="K26">
+        <v>158</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>1456.2</v>
+      </c>
+      <c r="Q26">
+        <v>1385</v>
+      </c>
+      <c r="R26">
+        <v>636</v>
+      </c>
+      <c r="S26">
+        <v>585</v>
+      </c>
+      <c r="T26">
+        <v>168</v>
+      </c>
+      <c r="U26">
+        <v>442</v>
+      </c>
+      <c r="V26">
+        <v>46</v>
+      </c>
+      <c r="W26">
+        <v>982</v>
+      </c>
+      <c r="X26">
+        <v>50</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>33</v>
+      </c>
+      <c r="AA26">
+        <v>6077</v>
+      </c>
+      <c r="AB26">
+        <v>108</v>
+      </c>
+      <c r="AC26">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AD26">
+        <v>1.254</v>
+      </c>
+      <c r="AE26">
+        <v>8.6</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>2.7</v>
+      </c>
+      <c r="AH26">
+        <v>6.1</v>
+      </c>
+      <c r="AI26">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AJ26">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>28.7</v>
+      </c>
+      <c r="D27">
+        <v>4.59</v>
+      </c>
+      <c r="E27">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H27">
+        <v>4.09</v>
+      </c>
+      <c r="I27">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>162</v>
+      </c>
+      <c r="K27">
+        <v>157</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>54</v>
+      </c>
+      <c r="P27">
+        <v>1453</v>
+      </c>
+      <c r="Q27">
+        <v>1553</v>
+      </c>
+      <c r="R27">
+        <v>744</v>
+      </c>
+      <c r="S27">
+        <v>660</v>
+      </c>
+      <c r="T27">
+        <v>152</v>
+      </c>
+      <c r="U27">
+        <v>383</v>
+      </c>
+      <c r="V27">
+        <v>50</v>
+      </c>
+      <c r="W27">
+        <v>775</v>
+      </c>
+      <c r="X27">
+        <v>43</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>40</v>
+      </c>
+      <c r="AA27">
+        <v>6196</v>
+      </c>
+      <c r="AB27">
+        <v>96</v>
+      </c>
+      <c r="AC27">
+        <v>4.16</v>
+      </c>
+      <c r="AD27">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>9.6</v>
+      </c>
+      <c r="AF27">
+        <v>0.9</v>
+      </c>
+      <c r="AG27">
+        <v>2.4</v>
+      </c>
+      <c r="AH27">
+        <v>4.8</v>
+      </c>
+      <c r="AI27">
+        <v>2.02</v>
+      </c>
+      <c r="AJ27">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>30.3</v>
+      </c>
+      <c r="D28">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E28">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H28">
+        <v>4.28</v>
+      </c>
+      <c r="I28">
+        <v>162</v>
+      </c>
+      <c r="J28">
+        <v>162</v>
+      </c>
+      <c r="K28">
+        <v>142</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>45</v>
+      </c>
+      <c r="P28">
+        <v>1438.1</v>
+      </c>
+      <c r="Q28">
+        <v>1476</v>
+      </c>
+      <c r="R28">
+        <v>751</v>
+      </c>
+      <c r="S28">
+        <v>684</v>
+      </c>
+      <c r="T28">
+        <v>144</v>
+      </c>
+      <c r="U28">
+        <v>562</v>
+      </c>
+      <c r="V28">
+        <v>42</v>
+      </c>
+      <c r="W28">
+        <v>957</v>
+      </c>
+      <c r="X28">
+        <v>44</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="Z28">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <v>6232</v>
+      </c>
+      <c r="AB28">
+        <v>98</v>
+      </c>
+      <c r="AC28">
+        <v>4.22</v>
+      </c>
+      <c r="AD28">
+        <v>1.417</v>
+      </c>
+      <c r="AE28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF28">
+        <v>0.9</v>
+      </c>
+      <c r="AG28">
+        <v>3.5</v>
+      </c>
+      <c r="AH28">
+        <v>6</v>
+      </c>
+      <c r="AI28">
+        <v>1.7</v>
+      </c>
+      <c r="AJ28">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>29.5</v>
+      </c>
+      <c r="D29">
+        <v>4.58</v>
+      </c>
+      <c r="E29">
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H29">
+        <v>4.21</v>
+      </c>
+      <c r="I29">
+        <v>162</v>
+      </c>
+      <c r="J29">
+        <v>162</v>
+      </c>
+      <c r="K29">
+        <v>151</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>1441.1</v>
+      </c>
+      <c r="Q29">
+        <v>1441</v>
+      </c>
+      <c r="R29">
+        <v>742</v>
+      </c>
+      <c r="S29">
+        <v>674</v>
+      </c>
+      <c r="T29">
+        <v>134</v>
+      </c>
+      <c r="U29">
+        <v>620</v>
+      </c>
+      <c r="V29">
+        <v>38</v>
+      </c>
+      <c r="W29">
+        <v>1023</v>
+      </c>
+      <c r="X29">
+        <v>32</v>
+      </c>
+      <c r="Y29">
+        <v>8</v>
+      </c>
+      <c r="Z29">
+        <v>83</v>
+      </c>
+      <c r="AA29">
+        <v>6269</v>
+      </c>
+      <c r="AB29">
+        <v>103</v>
+      </c>
+      <c r="AC29">
+        <v>4.13</v>
+      </c>
+      <c r="AD29">
+        <v>1.43</v>
+      </c>
+      <c r="AE29">
+        <v>9</v>
+      </c>
+      <c r="AF29">
+        <v>0.8</v>
+      </c>
+      <c r="AG29">
+        <v>3.9</v>
+      </c>
+      <c r="AH29">
+        <v>6.4</v>
+      </c>
+      <c r="AI29">
+        <v>1.65</v>
+      </c>
+      <c r="AJ29">
+        <v>1203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AC29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1" t="s">
+        <v>999</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>28.8</v>
+      </c>
+      <c r="D2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2">
+        <v>6234</v>
+      </c>
+      <c r="G2">
+        <v>5515</v>
+      </c>
+      <c r="H2">
+        <v>767</v>
+      </c>
+      <c r="I2">
+        <v>1444</v>
+      </c>
+      <c r="J2">
+        <v>239</v>
+      </c>
+      <c r="K2">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>169</v>
+      </c>
+      <c r="M2">
+        <v>712</v>
+      </c>
+      <c r="N2">
+        <v>125</v>
+      </c>
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>560</v>
+      </c>
+      <c r="Q2">
+        <v>946</v>
+      </c>
+      <c r="R2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="V2">
+        <v>97</v>
+      </c>
+      <c r="W2">
+        <v>2248</v>
+      </c>
+      <c r="X2">
+        <v>127</v>
+      </c>
+      <c r="Y2">
+        <v>36</v>
+      </c>
+      <c r="Z2">
+        <v>73</v>
+      </c>
+      <c r="AA2">
+        <v>50</v>
+      </c>
+      <c r="AB2">
+        <v>46</v>
+      </c>
+      <c r="AC2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>29.4</v>
+      </c>
+      <c r="D3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E3">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>6310</v>
+      </c>
+      <c r="G3">
+        <v>5508</v>
+      </c>
+      <c r="H3">
+        <v>786</v>
+      </c>
+      <c r="I3">
+        <v>1470</v>
+      </c>
+      <c r="J3">
+        <v>287</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>157</v>
+      </c>
+      <c r="M3">
+        <v>744</v>
+      </c>
+      <c r="N3">
+        <v>73</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+      <c r="P3">
+        <v>655</v>
+      </c>
+      <c r="Q3">
+        <v>930</v>
+      </c>
+      <c r="R3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="V3">
+        <v>101</v>
+      </c>
+      <c r="W3">
+        <v>2276</v>
+      </c>
+      <c r="X3">
+        <v>131</v>
+      </c>
+      <c r="Y3">
+        <v>41</v>
+      </c>
+      <c r="Z3">
+        <v>49</v>
+      </c>
+      <c r="AA3">
+        <v>56</v>
+      </c>
+      <c r="AB3">
+        <v>52</v>
+      </c>
+      <c r="AC3">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>29.7</v>
+      </c>
+      <c r="D4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E4">
+        <v>162</v>
+      </c>
+      <c r="F4">
+        <v>6196</v>
+      </c>
+      <c r="G4">
+        <v>5496</v>
+      </c>
+      <c r="H4">
+        <v>686</v>
+      </c>
+      <c r="I4">
+        <v>1451</v>
+      </c>
+      <c r="J4">
+        <v>319</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>114</v>
+      </c>
+      <c r="M4">
+        <v>644</v>
+      </c>
+      <c r="N4">
+        <v>73</v>
+      </c>
+      <c r="O4">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <v>508</v>
+      </c>
+      <c r="Q4">
+        <v>871</v>
+      </c>
+      <c r="R4">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.33</v>
+      </c>
+      <c r="T4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="V4">
+        <v>90</v>
+      </c>
+      <c r="W4">
+        <v>2170</v>
+      </c>
+      <c r="X4">
+        <v>146</v>
+      </c>
+      <c r="Y4">
+        <v>62</v>
+      </c>
+      <c r="Z4">
+        <v>80</v>
+      </c>
+      <c r="AA4">
+        <v>49</v>
+      </c>
+      <c r="AB4">
+        <v>69</v>
+      </c>
+      <c r="AC4">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>27.2</v>
+      </c>
+      <c r="D5">
+        <v>4.22</v>
+      </c>
+      <c r="E5">
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>6089</v>
+      </c>
+      <c r="G5">
+        <v>5391</v>
+      </c>
+      <c r="H5">
+        <v>684</v>
+      </c>
+      <c r="I5">
+        <v>1399</v>
+      </c>
+      <c r="J5">
+        <v>259</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>644</v>
+      </c>
+      <c r="N5">
+        <v>169</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>564</v>
+      </c>
+      <c r="Q5">
+        <v>930</v>
+      </c>
+      <c r="R5">
+        <v>0.26</v>
+      </c>
+      <c r="S5">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.38</v>
+      </c>
+      <c r="U5">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="V5">
+        <v>90</v>
+      </c>
+      <c r="W5">
+        <v>2048</v>
+      </c>
+      <c r="X5">
+        <v>129</v>
+      </c>
+      <c r="Y5">
+        <v>38</v>
+      </c>
+      <c r="Z5">
+        <v>50</v>
+      </c>
+      <c r="AA5">
+        <v>46</v>
+      </c>
+      <c r="AB5">
+        <v>39</v>
+      </c>
+      <c r="AC5">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>4.53</v>
+      </c>
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>6217</v>
+      </c>
+      <c r="G6">
+        <v>5627</v>
+      </c>
+      <c r="H6">
+        <v>738</v>
+      </c>
+      <c r="I6">
+        <v>1521</v>
+      </c>
+      <c r="J6">
+        <v>259</v>
+      </c>
+      <c r="K6">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>161</v>
+      </c>
+      <c r="M6">
+        <v>706</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>43</v>
+      </c>
+      <c r="P6">
+        <v>446</v>
+      </c>
+      <c r="Q6">
+        <v>923</v>
+      </c>
+      <c r="R6">
+        <v>0.27</v>
+      </c>
+      <c r="S6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="V6">
+        <v>99</v>
+      </c>
+      <c r="W6">
+        <v>2327</v>
+      </c>
+      <c r="X6">
+        <v>131</v>
+      </c>
+      <c r="Y6">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>67</v>
+      </c>
+      <c r="AA6">
+        <v>42</v>
+      </c>
+      <c r="AB6">
+        <v>61</v>
+      </c>
+      <c r="AC6">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>4.79</v>
+      </c>
+      <c r="E7">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>6253</v>
+      </c>
+      <c r="G7">
+        <v>5483</v>
+      </c>
+      <c r="H7">
+        <v>776</v>
+      </c>
+      <c r="I7">
+        <v>1454</v>
+      </c>
+      <c r="J7">
+        <v>228</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>162</v>
+      </c>
+      <c r="M7">
+        <v>731</v>
+      </c>
+      <c r="N7">
+        <v>106</v>
+      </c>
+      <c r="O7">
+        <v>57</v>
+      </c>
+      <c r="P7">
+        <v>604</v>
+      </c>
+      <c r="Q7">
+        <v>834</v>
+      </c>
+      <c r="R7">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="U7">
+        <v>0.75</v>
+      </c>
+      <c r="V7">
+        <v>103</v>
+      </c>
+      <c r="W7">
+        <v>2256</v>
+      </c>
+      <c r="X7">
+        <v>126</v>
+      </c>
+      <c r="Y7">
+        <v>33</v>
+      </c>
+      <c r="Z7">
+        <v>72</v>
+      </c>
+      <c r="AA7">
+        <v>61</v>
+      </c>
+      <c r="AB7">
+        <v>52</v>
+      </c>
+      <c r="AC7">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>28.4</v>
+      </c>
+      <c r="D8">
+        <v>4.46</v>
+      </c>
+      <c r="E8">
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <v>6164</v>
+      </c>
+      <c r="G8">
+        <v>5517</v>
+      </c>
+      <c r="H8">
+        <v>722</v>
+      </c>
+      <c r="I8">
+        <v>1457</v>
+      </c>
+      <c r="J8">
+        <v>261</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>137</v>
+      </c>
+      <c r="M8">
+        <v>669</v>
+      </c>
+      <c r="N8">
+        <v>142</v>
+      </c>
+      <c r="O8">
+        <v>59</v>
+      </c>
+      <c r="P8">
+        <v>485</v>
+      </c>
+      <c r="Q8">
+        <v>1025</v>
+      </c>
+      <c r="R8">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U8">
+        <v>0.72</v>
+      </c>
+      <c r="V8">
+        <v>92</v>
+      </c>
+      <c r="W8">
+        <v>2185</v>
+      </c>
+      <c r="X8">
+        <v>104</v>
+      </c>
+      <c r="Y8">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>63</v>
+      </c>
+      <c r="AA8">
+        <v>66</v>
+      </c>
+      <c r="AB8">
+        <v>42</v>
+      </c>
+      <c r="AC8">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>27.2</v>
+      </c>
+      <c r="D9">
+        <v>4.88</v>
+      </c>
+      <c r="E9">
+        <v>162</v>
+      </c>
+      <c r="F9">
+        <v>6267</v>
+      </c>
+      <c r="G9">
+        <v>5619</v>
+      </c>
+      <c r="H9">
+        <v>790</v>
+      </c>
+      <c r="I9">
+        <v>1547</v>
+      </c>
+      <c r="J9">
+        <v>264</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>141</v>
+      </c>
+      <c r="M9">
+        <v>747</v>
+      </c>
+      <c r="N9">
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="P9">
+        <v>488</v>
+      </c>
+      <c r="Q9">
+        <v>843</v>
+      </c>
+      <c r="R9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="T9">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="U9">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="V9">
+        <v>99</v>
+      </c>
+      <c r="W9">
+        <v>2296</v>
+      </c>
+      <c r="X9">
+        <v>131</v>
+      </c>
+      <c r="Y9">
+        <v>49</v>
+      </c>
+      <c r="Z9">
+        <v>39</v>
+      </c>
+      <c r="AA9">
+        <v>72</v>
+      </c>
+      <c r="AB9">
+        <v>57</v>
+      </c>
+      <c r="AC9">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>27.7</v>
+      </c>
+      <c r="D10">
+        <v>4.68</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+      <c r="F10">
+        <v>6073</v>
+      </c>
+      <c r="G10">
+        <v>5517</v>
+      </c>
+      <c r="H10">
+        <v>758</v>
+      </c>
+      <c r="I10">
+        <v>1507</v>
+      </c>
+      <c r="J10">
+        <v>278</v>
+      </c>
+      <c r="K10">
+        <v>59</v>
+      </c>
+      <c r="L10">
+        <v>142</v>
+      </c>
+      <c r="M10">
+        <v>704</v>
+      </c>
+      <c r="N10">
+        <v>146</v>
+      </c>
+      <c r="O10">
+        <v>90</v>
+      </c>
+      <c r="P10">
+        <v>388</v>
+      </c>
+      <c r="Q10">
+        <v>944</v>
+      </c>
+      <c r="R10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.745</v>
+      </c>
+      <c r="V10">
+        <v>87</v>
+      </c>
+      <c r="W10">
+        <v>2329</v>
+      </c>
+      <c r="X10">
+        <v>125</v>
+      </c>
+      <c r="Y10">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>70</v>
+      </c>
+      <c r="AA10">
+        <v>52</v>
+      </c>
+      <c r="AB10">
+        <v>40</v>
+      </c>
+      <c r="AC10">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>30.8</v>
+      </c>
+      <c r="D11">
+        <v>5.55</v>
+      </c>
+      <c r="E11">
+        <v>162</v>
+      </c>
+      <c r="F11">
+        <v>6505</v>
+      </c>
+      <c r="G11">
+        <v>5620</v>
+      </c>
+      <c r="H11">
+        <v>899</v>
+      </c>
+      <c r="I11">
+        <v>1546</v>
+      </c>
+      <c r="J11">
+        <v>282</v>
+      </c>
+      <c r="K11">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>178</v>
+      </c>
+      <c r="M11">
+        <v>853</v>
+      </c>
+      <c r="N11">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>63</v>
+      </c>
+      <c r="P11">
+        <v>765</v>
+      </c>
+      <c r="Q11">
+        <v>1122</v>
+      </c>
+      <c r="R11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.434</v>
+      </c>
+      <c r="U11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="V11">
+        <v>115</v>
+      </c>
+      <c r="W11">
+        <v>2438</v>
+      </c>
+      <c r="X11">
+        <v>101</v>
+      </c>
+      <c r="Y11">
+        <v>35</v>
+      </c>
+      <c r="Z11">
+        <v>33</v>
+      </c>
+      <c r="AA11">
+        <v>52</v>
+      </c>
+      <c r="AB11">
+        <v>50</v>
+      </c>
+      <c r="AC11">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B12">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>27.7</v>
+      </c>
+      <c r="D12">
+        <v>3.59</v>
+      </c>
+      <c r="E12">
+        <v>162</v>
+      </c>
+      <c r="F12">
+        <v>6127</v>
+      </c>
+      <c r="G12">
+        <v>5475</v>
+      </c>
+      <c r="H12">
+        <v>581</v>
+      </c>
+      <c r="I12">
+        <v>1356</v>
+      </c>
+      <c r="J12">
+        <v>197</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>94</v>
+      </c>
+      <c r="M12">
+        <v>542</v>
+      </c>
+      <c r="N12">
+        <v>117</v>
+      </c>
+      <c r="O12">
+        <v>56</v>
+      </c>
+      <c r="P12">
+        <v>498</v>
+      </c>
+      <c r="Q12">
+        <v>1054</v>
+      </c>
+      <c r="R12">
+        <v>0.248</v>
+      </c>
+      <c r="S12">
+        <v>0.314</v>
+      </c>
+      <c r="T12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="U12">
+        <v>0.66</v>
+      </c>
+      <c r="V12">
+        <v>74</v>
+      </c>
+      <c r="W12">
+        <v>1897</v>
+      </c>
+      <c r="X12">
+        <v>122</v>
+      </c>
+      <c r="Y12">
+        <v>51</v>
+      </c>
+      <c r="Z12">
+        <v>58</v>
+      </c>
+      <c r="AA12">
+        <v>43</v>
+      </c>
+      <c r="AB12">
+        <v>39</v>
+      </c>
+      <c r="AC12">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>27.1</v>
+      </c>
+      <c r="D13">
+        <v>4.42</v>
+      </c>
+      <c r="E13">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>6136</v>
+      </c>
+      <c r="G13">
+        <v>5464</v>
+      </c>
+      <c r="H13">
+        <v>716</v>
+      </c>
+      <c r="I13">
+        <v>1459</v>
+      </c>
+      <c r="J13">
+        <v>288</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>138</v>
+      </c>
+      <c r="M13">
+        <v>656</v>
+      </c>
+      <c r="N13">
+        <v>103</v>
+      </c>
+      <c r="O13">
+        <v>60</v>
+      </c>
+      <c r="P13">
+        <v>497</v>
+      </c>
+      <c r="Q13">
+        <v>911</v>
+      </c>
+      <c r="R13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S13">
+        <v>0.33</v>
+      </c>
+      <c r="T13">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="U13">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="V13">
+        <v>102</v>
+      </c>
+      <c r="W13">
+        <v>2235</v>
+      </c>
+      <c r="X13">
+        <v>125</v>
+      </c>
+      <c r="Y13">
+        <v>40</v>
+      </c>
+      <c r="Z13">
+        <v>82</v>
+      </c>
+      <c r="AA13">
+        <v>47</v>
+      </c>
+      <c r="AB13">
+        <v>58</v>
+      </c>
+      <c r="AC13">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B14">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>30.1</v>
+      </c>
+      <c r="D14">
+        <v>4.17</v>
+      </c>
+      <c r="E14">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>6101</v>
+      </c>
+      <c r="G14">
+        <v>5522</v>
+      </c>
+      <c r="H14">
+        <v>675</v>
+      </c>
+      <c r="I14">
+        <v>1455</v>
+      </c>
+      <c r="J14">
+        <v>294</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>125</v>
+      </c>
+      <c r="M14">
+        <v>641</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>75</v>
+      </c>
+      <c r="P14">
+        <v>428</v>
+      </c>
+      <c r="Q14">
+        <v>936</v>
+      </c>
+      <c r="R14">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.32</v>
+      </c>
+      <c r="T14">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="U14">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="V14">
+        <v>88</v>
+      </c>
+      <c r="W14">
+        <v>2194</v>
+      </c>
+      <c r="X14">
+        <v>107</v>
+      </c>
+      <c r="Y14">
+        <v>52</v>
+      </c>
+      <c r="Z14">
+        <v>48</v>
+      </c>
+      <c r="AA14">
+        <v>51</v>
+      </c>
+      <c r="AB14">
+        <v>50</v>
+      </c>
+      <c r="AC14">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>28.8</v>
+      </c>
+      <c r="D15">
+        <v>4.17</v>
+      </c>
+      <c r="E15">
+        <v>162</v>
+      </c>
+      <c r="F15">
+        <v>6261</v>
+      </c>
+      <c r="G15">
+        <v>5588</v>
+      </c>
+      <c r="H15">
+        <v>675</v>
+      </c>
+      <c r="I15">
+        <v>1458</v>
+      </c>
+      <c r="J15">
+        <v>234</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>130</v>
+      </c>
+      <c r="M15">
+        <v>639</v>
+      </c>
+      <c r="N15">
+        <v>126</v>
+      </c>
+      <c r="O15">
+        <v>61</v>
+      </c>
+      <c r="P15">
+        <v>492</v>
+      </c>
+      <c r="Q15">
+        <v>937</v>
+      </c>
+      <c r="R15">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="S15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="V15">
+        <v>93</v>
+      </c>
+      <c r="W15">
+        <v>2138</v>
+      </c>
+      <c r="X15">
+        <v>105</v>
+      </c>
+      <c r="Y15">
+        <v>27</v>
+      </c>
+      <c r="Z15">
+        <v>107</v>
+      </c>
+      <c r="AA15">
+        <v>47</v>
+      </c>
+      <c r="AB15">
+        <v>48</v>
+      </c>
+      <c r="AC15">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>28.5</v>
+      </c>
+      <c r="D16">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>6222</v>
+      </c>
+      <c r="G16">
+        <v>5525</v>
+      </c>
+      <c r="H16">
+        <v>733</v>
+      </c>
+      <c r="I16">
+        <v>1426</v>
+      </c>
+      <c r="J16">
+        <v>240</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>125</v>
+      </c>
+      <c r="M16">
+        <v>688</v>
+      </c>
+      <c r="N16">
+        <v>138</v>
+      </c>
+      <c r="O16">
+        <v>93</v>
+      </c>
+      <c r="P16">
+        <v>555</v>
+      </c>
+      <c r="Q16">
+        <v>932</v>
+      </c>
+      <c r="R16">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="S16">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.378</v>
+      </c>
+      <c r="U16">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="V16">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>2091</v>
+      </c>
+      <c r="X16">
+        <v>117</v>
+      </c>
+      <c r="Y16">
+        <v>40</v>
+      </c>
+      <c r="Z16">
+        <v>57</v>
+      </c>
+      <c r="AA16">
+        <v>45</v>
+      </c>
+      <c r="AB16">
+        <v>52</v>
+      </c>
+      <c r="AC16">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>29.7</v>
+      </c>
+      <c r="D17">
+        <v>4.28</v>
+      </c>
+      <c r="E17">
+        <v>162</v>
+      </c>
+      <c r="F17">
+        <v>6209</v>
+      </c>
+      <c r="G17">
+        <v>5601</v>
+      </c>
+      <c r="H17">
+        <v>693</v>
+      </c>
+      <c r="I17">
+        <v>1480</v>
+      </c>
+      <c r="J17">
+        <v>261</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>121</v>
+      </c>
+      <c r="M17">
+        <v>642</v>
+      </c>
+      <c r="N17">
+        <v>83</v>
+      </c>
+      <c r="O17">
+        <v>59</v>
+      </c>
+      <c r="P17">
+        <v>493</v>
+      </c>
+      <c r="Q17">
+        <v>850</v>
+      </c>
+      <c r="R17">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="T17">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="V17">
+        <v>92</v>
+      </c>
+      <c r="W17">
+        <v>2158</v>
+      </c>
+      <c r="X17">
+        <v>150</v>
+      </c>
+      <c r="Y17">
+        <v>51</v>
+      </c>
+      <c r="Z17">
+        <v>27</v>
+      </c>
+      <c r="AA17">
+        <v>37</v>
+      </c>
+      <c r="AB17">
+        <v>35</v>
+      </c>
+      <c r="AC17">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>25.7</v>
+      </c>
+      <c r="D18">
+        <v>4.49</v>
+      </c>
+      <c r="E18">
+        <v>163</v>
+      </c>
+      <c r="F18">
+        <v>6233</v>
+      </c>
+      <c r="G18">
+        <v>5493</v>
+      </c>
+      <c r="H18">
+        <v>732</v>
+      </c>
+      <c r="I18">
+        <v>1410</v>
+      </c>
+      <c r="J18">
+        <v>270</v>
+      </c>
+      <c r="K18">
+        <v>36</v>
+      </c>
+      <c r="L18">
+        <v>122</v>
+      </c>
+      <c r="M18">
+        <v>682</v>
+      </c>
+      <c r="N18">
+        <v>228</v>
+      </c>
+      <c r="O18">
+        <v>56</v>
+      </c>
+      <c r="P18">
+        <v>542</v>
+      </c>
+      <c r="Q18">
+        <v>860</v>
+      </c>
+      <c r="R18">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T18">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="U18">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="V18">
+        <v>87</v>
+      </c>
+      <c r="W18">
+        <v>2118</v>
+      </c>
+      <c r="X18">
+        <v>95</v>
+      </c>
+      <c r="Y18">
+        <v>48</v>
+      </c>
+      <c r="Z18">
+        <v>100</v>
+      </c>
+      <c r="AA18">
+        <v>50</v>
+      </c>
+      <c r="AB18">
+        <v>65</v>
+      </c>
+      <c r="AC18">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>29.4</v>
+      </c>
+      <c r="D19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E19">
+        <v>162</v>
+      </c>
+      <c r="F19">
+        <v>6057</v>
+      </c>
+      <c r="G19">
+        <v>5448</v>
+      </c>
+      <c r="H19">
+        <v>672</v>
+      </c>
+      <c r="I19">
+        <v>1350</v>
+      </c>
+      <c r="J19">
+        <v>228</v>
+      </c>
+      <c r="K19">
+        <v>37</v>
+      </c>
+      <c r="L19">
+        <v>158</v>
+      </c>
+      <c r="M19">
+        <v>632</v>
+      </c>
+      <c r="N19">
+        <v>79</v>
+      </c>
+      <c r="O19">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>448</v>
+      </c>
+      <c r="Q19">
+        <v>879</v>
+      </c>
+      <c r="R19">
+        <v>0.248</v>
+      </c>
+      <c r="S19">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0.39</v>
+      </c>
+      <c r="U19">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="V19">
+        <v>87</v>
+      </c>
+      <c r="W19">
+        <v>2126</v>
+      </c>
+      <c r="X19">
+        <v>108</v>
+      </c>
+      <c r="Y19">
+        <v>24</v>
+      </c>
+      <c r="Z19">
+        <v>89</v>
+      </c>
+      <c r="AA19">
+        <v>47</v>
+      </c>
+      <c r="AB19">
+        <v>43</v>
+      </c>
+      <c r="AC19">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>29.7</v>
+      </c>
+      <c r="D20">
+        <v>5.07</v>
+      </c>
+      <c r="E20">
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>6359</v>
+      </c>
+      <c r="G20">
+        <v>5615</v>
+      </c>
+      <c r="H20">
+        <v>821</v>
+      </c>
+      <c r="I20">
+        <v>1568</v>
+      </c>
+      <c r="J20">
+        <v>294</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>178</v>
+      </c>
+      <c r="M20">
+        <v>793</v>
+      </c>
+      <c r="N20">
+        <v>39</v>
+      </c>
+      <c r="O20">
+        <v>35</v>
+      </c>
+      <c r="P20">
+        <v>629</v>
+      </c>
+      <c r="Q20">
+        <v>910</v>
+      </c>
+      <c r="R20">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S20">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="T20">
+        <v>0.435</v>
+      </c>
+      <c r="U20">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="V20">
+        <v>114</v>
+      </c>
+      <c r="W20">
+        <v>2444</v>
+      </c>
+      <c r="X20">
+        <v>149</v>
+      </c>
+      <c r="Y20">
+        <v>43</v>
+      </c>
+      <c r="Z20">
+        <v>22</v>
+      </c>
+      <c r="AA20">
+        <v>50</v>
+      </c>
+      <c r="AB20">
+        <v>47</v>
+      </c>
+      <c r="AC20">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>4.41</v>
+      </c>
+      <c r="E21">
+        <v>162</v>
+      </c>
+      <c r="F21">
+        <v>6295</v>
+      </c>
+      <c r="G21">
+        <v>5543</v>
+      </c>
+      <c r="H21">
+        <v>715</v>
+      </c>
+      <c r="I21">
+        <v>1408</v>
+      </c>
+      <c r="J21">
+        <v>260</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21">
+        <v>158</v>
+      </c>
+      <c r="M21">
+        <v>679</v>
+      </c>
+      <c r="N21">
+        <v>131</v>
+      </c>
+      <c r="O21">
+        <v>59</v>
+      </c>
+      <c r="P21">
+        <v>622</v>
+      </c>
+      <c r="Q21">
+        <v>1048</v>
+      </c>
+      <c r="R21">
+        <v>0.254</v>
+      </c>
+      <c r="S21">
+        <v>0.33</v>
+      </c>
+      <c r="T21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="U21">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>2184</v>
+      </c>
+      <c r="X21">
+        <v>125</v>
+      </c>
+      <c r="Y21">
+        <v>33</v>
+      </c>
+      <c r="Z21">
+        <v>46</v>
+      </c>
+      <c r="AA21">
+        <v>49</v>
+      </c>
+      <c r="AB21">
+        <v>45</v>
+      </c>
+      <c r="AC21">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>29.3</v>
+      </c>
+      <c r="D22">
+        <v>5.41</v>
+      </c>
+      <c r="E22">
+        <v>162</v>
+      </c>
+      <c r="F22">
+        <v>6527</v>
+      </c>
+      <c r="G22">
+        <v>5685</v>
+      </c>
+      <c r="H22">
+        <v>877</v>
+      </c>
+      <c r="I22">
+        <v>1555</v>
+      </c>
+      <c r="J22">
+        <v>297</v>
+      </c>
+      <c r="K22">
+        <v>51</v>
+      </c>
+      <c r="L22">
+        <v>156</v>
+      </c>
+      <c r="M22">
+        <v>811</v>
+      </c>
+      <c r="N22">
+        <v>91</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>665</v>
+      </c>
+      <c r="Q22">
+        <v>1049</v>
+      </c>
+      <c r="R22">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="U22">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="V22">
+        <v>109</v>
+      </c>
+      <c r="W22">
+        <v>2422</v>
+      </c>
+      <c r="X22">
+        <v>107</v>
+      </c>
+      <c r="Y22">
+        <v>42</v>
+      </c>
+      <c r="Z22">
+        <v>84</v>
+      </c>
+      <c r="AA22">
+        <v>51</v>
+      </c>
+      <c r="AB22">
+        <v>70</v>
+      </c>
+      <c r="AC22">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>28.1</v>
+      </c>
+      <c r="D23">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E23">
+        <v>162</v>
+      </c>
+      <c r="F23">
+        <v>6269</v>
+      </c>
+      <c r="G23">
+        <v>5549</v>
+      </c>
+      <c r="H23">
+        <v>707</v>
+      </c>
+      <c r="I23">
+        <v>1482</v>
+      </c>
+      <c r="J23">
+        <v>267</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>664</v>
+      </c>
+      <c r="N23">
+        <v>92</v>
+      </c>
+      <c r="O23">
+        <v>55</v>
+      </c>
+      <c r="P23">
+        <v>536</v>
+      </c>
+      <c r="Q23">
+        <v>972</v>
+      </c>
+      <c r="R23">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S23">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="T23">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="U23">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="V23">
+        <v>96</v>
+      </c>
+      <c r="W23">
+        <v>2179</v>
+      </c>
+      <c r="X23">
+        <v>129</v>
+      </c>
+      <c r="Y23">
+        <v>55</v>
+      </c>
+      <c r="Z23">
+        <v>76</v>
+      </c>
+      <c r="AA23">
+        <v>52</v>
+      </c>
+      <c r="AB23">
+        <v>50</v>
+      </c>
+      <c r="AC23">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>981</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>26.9</v>
+      </c>
+      <c r="D24">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E24">
+        <v>162</v>
+      </c>
+      <c r="F24">
+        <v>6137</v>
+      </c>
+      <c r="G24">
+        <v>5503</v>
+      </c>
+      <c r="H24">
+        <v>679</v>
+      </c>
+      <c r="I24">
+        <v>1386</v>
+      </c>
+      <c r="J24">
+        <v>239</v>
+      </c>
+      <c r="K24">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>153</v>
+      </c>
+      <c r="M24">
+        <v>633</v>
+      </c>
+      <c r="N24">
+        <v>92</v>
+      </c>
+      <c r="O24">
+        <v>41</v>
+      </c>
+      <c r="P24">
+        <v>443</v>
+      </c>
+      <c r="Q24">
+        <v>1046</v>
+      </c>
+      <c r="R24">
+        <v>0.252</v>
+      </c>
+      <c r="S24">
+        <v>0.312</v>
+      </c>
+      <c r="T24">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="V24">
+        <v>86</v>
+      </c>
+      <c r="W24">
+        <v>2140</v>
+      </c>
+      <c r="X24">
+        <v>111</v>
+      </c>
+      <c r="Y24">
+        <v>59</v>
+      </c>
+      <c r="Z24">
+        <v>80</v>
+      </c>
+      <c r="AA24">
+        <v>50</v>
+      </c>
+      <c r="AB24">
+        <v>43</v>
+      </c>
+      <c r="AC24">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>4.53</v>
+      </c>
+      <c r="E25">
+        <v>162</v>
+      </c>
+      <c r="F25">
+        <v>6288</v>
+      </c>
+      <c r="G25">
+        <v>5494</v>
+      </c>
+      <c r="H25">
+        <v>734</v>
+      </c>
+      <c r="I25">
+        <v>1429</v>
+      </c>
+      <c r="J25">
+        <v>272</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>161</v>
+      </c>
+      <c r="M25">
+        <v>681</v>
+      </c>
+      <c r="N25">
+        <v>91</v>
+      </c>
+      <c r="O25">
+        <v>68</v>
+      </c>
+      <c r="P25">
+        <v>624</v>
+      </c>
+      <c r="Q25">
+        <v>901</v>
+      </c>
+      <c r="R25">
+        <v>0.26</v>
+      </c>
+      <c r="S25">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="T25">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="U25">
+        <v>0.745</v>
+      </c>
+      <c r="V25">
+        <v>99</v>
+      </c>
+      <c r="W25">
+        <v>2232</v>
+      </c>
+      <c r="X25">
+        <v>132</v>
+      </c>
+      <c r="Y25">
+        <v>56</v>
+      </c>
+      <c r="Z25">
+        <v>63</v>
+      </c>
+      <c r="AA25">
+        <v>51</v>
+      </c>
+      <c r="AB25">
+        <v>73</v>
+      </c>
+      <c r="AC25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>824</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>4.99</v>
+      </c>
+      <c r="E26">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <v>6271</v>
+      </c>
+      <c r="G26">
+        <v>5557</v>
+      </c>
+      <c r="H26">
+        <v>808</v>
+      </c>
+      <c r="I26">
+        <v>1534</v>
+      </c>
+      <c r="J26">
+        <v>269</v>
+      </c>
+      <c r="K26">
+        <v>33</v>
+      </c>
+      <c r="L26">
+        <v>168</v>
+      </c>
+      <c r="M26">
+        <v>759</v>
+      </c>
+      <c r="N26">
+        <v>120</v>
+      </c>
+      <c r="O26">
+        <v>65</v>
+      </c>
+      <c r="P26">
+        <v>516</v>
+      </c>
+      <c r="Q26">
+        <v>930</v>
+      </c>
+      <c r="R26">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="S26">
+        <v>0.34</v>
+      </c>
+      <c r="T26">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="U26">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="V26">
+        <v>108</v>
+      </c>
+      <c r="W26">
+        <v>2373</v>
+      </c>
+      <c r="X26">
+        <v>121</v>
+      </c>
+      <c r="Y26">
+        <v>46</v>
+      </c>
+      <c r="Z26">
+        <v>102</v>
+      </c>
+      <c r="AA26">
+        <v>50</v>
+      </c>
+      <c r="AB26">
+        <v>88</v>
+      </c>
+      <c r="AC26">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>4.68</v>
+      </c>
+      <c r="E27">
+        <v>162</v>
+      </c>
+      <c r="F27">
+        <v>6279</v>
+      </c>
+      <c r="G27">
+        <v>5551</v>
+      </c>
+      <c r="H27">
+        <v>758</v>
+      </c>
+      <c r="I27">
+        <v>1508</v>
+      </c>
+      <c r="J27">
+        <v>262</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
+      <c r="L27">
+        <v>118</v>
+      </c>
+      <c r="M27">
+        <v>724</v>
+      </c>
+      <c r="N27">
+        <v>153</v>
+      </c>
+      <c r="O27">
+        <v>72</v>
+      </c>
+      <c r="P27">
+        <v>588</v>
+      </c>
+      <c r="Q27">
+        <v>882</v>
+      </c>
+      <c r="R27">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="S27">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="T27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="U27">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="V27">
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <v>2192</v>
+      </c>
+      <c r="X27">
+        <v>128</v>
+      </c>
+      <c r="Y27">
+        <v>27</v>
+      </c>
+      <c r="Z27">
+        <v>59</v>
+      </c>
+      <c r="AA27">
+        <v>54</v>
+      </c>
+      <c r="AB27">
+        <v>50</v>
+      </c>
+      <c r="AC27">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>27.6</v>
+      </c>
+      <c r="D28">
+        <v>5.15</v>
+      </c>
+      <c r="E28">
+        <v>162</v>
+      </c>
+      <c r="F28">
+        <v>6166</v>
+      </c>
+      <c r="G28">
+        <v>5510</v>
+      </c>
+      <c r="H28">
+        <v>835</v>
+      </c>
+      <c r="I28">
+        <v>1472</v>
+      </c>
+      <c r="J28">
+        <v>284</v>
+      </c>
+      <c r="K28">
+        <v>39</v>
+      </c>
+      <c r="L28">
+        <v>181</v>
+      </c>
+      <c r="M28">
+        <v>780</v>
+      </c>
+      <c r="N28">
+        <v>113</v>
+      </c>
+      <c r="O28">
+        <v>67</v>
+      </c>
+      <c r="P28">
+        <v>483</v>
+      </c>
+      <c r="Q28">
+        <v>984</v>
+      </c>
+      <c r="R28">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S28">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T28">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="U28">
+        <v>0.76</v>
+      </c>
+      <c r="V28">
+        <v>107</v>
+      </c>
+      <c r="W28">
+        <v>2377</v>
+      </c>
+      <c r="X28">
+        <v>111</v>
+      </c>
+      <c r="Y28">
+        <v>48</v>
+      </c>
+      <c r="Z28">
+        <v>69</v>
+      </c>
+      <c r="AA28">
+        <v>56</v>
+      </c>
+      <c r="AB28">
+        <v>56</v>
+      </c>
+      <c r="AC28">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>29.2</v>
+      </c>
+      <c r="D29">
+        <v>5.23</v>
+      </c>
+      <c r="E29">
+        <v>162</v>
+      </c>
+      <c r="F29">
+        <v>6319</v>
+      </c>
+      <c r="G29">
+        <v>5579</v>
+      </c>
+      <c r="H29">
+        <v>847</v>
+      </c>
+      <c r="I29">
+        <v>1556</v>
+      </c>
+      <c r="J29">
+        <v>317</v>
+      </c>
+      <c r="K29">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>159</v>
+      </c>
+      <c r="M29">
+        <v>796</v>
+      </c>
+      <c r="N29">
+        <v>170</v>
+      </c>
+      <c r="O29">
+        <v>49</v>
+      </c>
+      <c r="P29">
+        <v>588</v>
+      </c>
+      <c r="Q29">
+        <v>861</v>
+      </c>
+      <c r="R29">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S29">
+        <v>0.35</v>
+      </c>
+      <c r="T29">
+        <v>0.436</v>
+      </c>
+      <c r="U29">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="V29">
+        <v>110</v>
+      </c>
+      <c r="W29">
+        <v>2434</v>
+      </c>
+      <c r="X29">
+        <v>138</v>
+      </c>
+      <c r="Y29">
+        <v>52</v>
+      </c>
+      <c r="Z29">
+        <v>46</v>
+      </c>
+      <c r="AA29">
+        <v>54</v>
+      </c>
+      <c r="AB29">
+        <v>57</v>
+      </c>
+      <c r="AC29">
+        <v>1187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>